--- a/Necessary_Files/Manual_filter_assessorscommercialproperty.xlsx
+++ b/Necessary_Files/Manual_filter_assessorscommercialproperty.xlsx
@@ -1,22 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleaw\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleaw\OneDrive\Documents\PhD Fall 2021 - Spring 2022\Merriman RA\ptax\Necessary_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{AA594921-5CDD-465B-94D1-4DC987A5716C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A55A42BC-9590-4B1B-B79A-5F8576F2109B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552"/>
+    <workbookView xWindow="-28800" yWindow="7620" windowWidth="21600" windowHeight="11010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Manual_filter_assessorscommerci" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -3057,9 +3070,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="00000000000000"/>
+    <numFmt numFmtId="164" formatCode="00000000000000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -3528,8 +3541,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -3589,15 +3602,15 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="00000000000000"/>
+      <numFmt numFmtId="164" formatCode="00000000000000"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="00000000000000"/>
+      <numFmt numFmtId="164" formatCode="00000000000000"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="00000000000000"/>
+      <numFmt numFmtId="164" formatCode="00000000000000"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3613,83 +3626,83 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:BO307" totalsRowShown="0">
-  <autoFilter ref="A1:BO307"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:BO307" totalsRowShown="0">
+  <autoFilter ref="A1:BO307" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:BO307">
     <sortCondition ref="A1:A307"/>
   </sortState>
   <tableColumns count="67">
-    <tableColumn id="1" name="keypin_concat" dataDxfId="3"/>
-    <tableColumn id="2" name="first_pin_concat" dataDxfId="2"/>
-    <tableColumn id="3" name="keypin_is_firstpin" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="keypin_concat" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="first_pin_concat" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="keypin_is_firstpin" dataDxfId="1">
       <calculatedColumnFormula>A2=B2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="keypin"/>
-    <tableColumn id="5" name="first_pin">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="keypin"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="first_pin">
       <calculatedColumnFormula>LEFT(F2,18)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="pins"/>
-    <tableColumn id="7" name="year"/>
-    <tableColumn id="8" name="township"/>
-    <tableColumn id="9" name="modelgroup"/>
-    <tableColumn id="10" name="class(es)"/>
-    <tableColumn id="11" name="studiounits"/>
-    <tableColumn id="12" name="tot_units"/>
-    <tableColumn id="13" name="address"/>
-    <tableColumn id="14" name="adj_rent/sf"/>
-    <tableColumn id="15" name="aprx_comm_sf"/>
-    <tableColumn id="16" name="apt"/>
-    <tableColumn id="17" name="avgdailyrate"/>
-    <tableColumn id="18" name="bldgsf"/>
-    <tableColumn id="19" name="caprate"/>
-    <tableColumn id="20" name="carwash"/>
-    <tableColumn id="21" name="category"/>
-    <tableColumn id="22" name="ceilingheight"/>
-    <tableColumn id="23" name="covidadjvacancy"/>
-    <tableColumn id="24" name="egi"/>
-    <tableColumn id="25" name="excesslandarea"/>
-    <tableColumn id="26" name="excesslandval"/>
-    <tableColumn id="27" name="exp"/>
-    <tableColumn id="28" name="f/r"/>
-    <tableColumn id="29" name="finalmarketvalue"/>
-    <tableColumn id="30" name="finalmarketvalue/key"/>
-    <tableColumn id="31" name="finalmarketvalue/sf"/>
-    <tableColumn id="32" name="finalmarketvalue/unit"/>
-    <tableColumn id="33" name="idphlicense#"/>
-    <tableColumn id="34" name="incomemarketvalue"/>
-    <tableColumn id="35" name="incomemarketvalue/sf"/>
-    <tableColumn id="36" name="investmentrating"/>
-    <tableColumn id="37" name="land:bldg"/>
-    <tableColumn id="38" name="landsf"/>
-    <tableColumn id="39" name="nbhd"/>
-    <tableColumn id="40" name="netrentablesf"/>
-    <tableColumn id="41" name="noi"/>
-    <tableColumn id="42" name="oiltankvalue/atypicaloby"/>
-    <tableColumn id="43" name="owner"/>
-    <tableColumn id="44" name="parking"/>
-    <tableColumn id="45" name="parkingsf"/>
-    <tableColumn id="46" name="pctownerinterest"/>
-    <tableColumn id="47" name="pgi"/>
-    <tableColumn id="48" name="property_name/description"/>
-    <tableColumn id="49" name="property_type/use"/>
-    <tableColumn id="50" name="reportedoccupancy"/>
-    <tableColumn id="51" name="revenuebed/day"/>
-    <tableColumn id="52" name="revpar"/>
-    <tableColumn id="53" name="roomrev%"/>
-    <tableColumn id="54" name="salecompmarketvalue/sf"/>
-    <tableColumn id="55" name="sap"/>
-    <tableColumn id="56" name="sapdeduction"/>
-    <tableColumn id="57" name="saptier"/>
-    <tableColumn id="58" name="stories"/>
-    <tableColumn id="59" name="taxdist"/>
-    <tableColumn id="60" name="taxpayer"/>
-    <tableColumn id="61" name="total2019revreported"/>
-    <tableColumn id="62" name="total2020revreported"/>
-    <tableColumn id="63" name="totalexp"/>
-    <tableColumn id="64" name="totalrev"/>
-    <tableColumn id="65" name="vacancy"/>
-    <tableColumn id="66" name="yearbuilt"/>
-    <tableColumn id="67" name="2023permit/partial/demovalue"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="pins"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="year"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="township"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="modelgroup"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="class(es)"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="studiounits"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="tot_units"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="address"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="adj_rent/sf"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="aprx_comm_sf"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="apt"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="avgdailyrate"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="bldgsf"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="caprate"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="carwash"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="category"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="ceilingheight"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="covidadjvacancy"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="egi"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="excesslandarea"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="excesslandval"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="exp"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="f/r"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="finalmarketvalue"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="finalmarketvalue/key"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="finalmarketvalue/sf"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="finalmarketvalue/unit"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="idphlicense#"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="incomemarketvalue"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="incomemarketvalue/sf"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="investmentrating"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" name="land:bldg"/>
+    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" name="landsf"/>
+    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" name="nbhd"/>
+    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0000-000028000000}" name="netrentablesf"/>
+    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0000-000029000000}" name="noi"/>
+    <tableColumn id="42" xr3:uid="{00000000-0010-0000-0000-00002A000000}" name="oiltankvalue/atypicaloby"/>
+    <tableColumn id="43" xr3:uid="{00000000-0010-0000-0000-00002B000000}" name="owner"/>
+    <tableColumn id="44" xr3:uid="{00000000-0010-0000-0000-00002C000000}" name="parking"/>
+    <tableColumn id="45" xr3:uid="{00000000-0010-0000-0000-00002D000000}" name="parkingsf"/>
+    <tableColumn id="46" xr3:uid="{00000000-0010-0000-0000-00002E000000}" name="pctownerinterest"/>
+    <tableColumn id="47" xr3:uid="{00000000-0010-0000-0000-00002F000000}" name="pgi"/>
+    <tableColumn id="48" xr3:uid="{00000000-0010-0000-0000-000030000000}" name="property_name/description"/>
+    <tableColumn id="49" xr3:uid="{00000000-0010-0000-0000-000031000000}" name="property_type/use"/>
+    <tableColumn id="50" xr3:uid="{00000000-0010-0000-0000-000032000000}" name="reportedoccupancy"/>
+    <tableColumn id="51" xr3:uid="{00000000-0010-0000-0000-000033000000}" name="revenuebed/day"/>
+    <tableColumn id="52" xr3:uid="{00000000-0010-0000-0000-000034000000}" name="revpar"/>
+    <tableColumn id="53" xr3:uid="{00000000-0010-0000-0000-000035000000}" name="roomrev%"/>
+    <tableColumn id="54" xr3:uid="{00000000-0010-0000-0000-000036000000}" name="salecompmarketvalue/sf"/>
+    <tableColumn id="55" xr3:uid="{00000000-0010-0000-0000-000037000000}" name="sap"/>
+    <tableColumn id="56" xr3:uid="{00000000-0010-0000-0000-000038000000}" name="sapdeduction"/>
+    <tableColumn id="57" xr3:uid="{00000000-0010-0000-0000-000039000000}" name="saptier"/>
+    <tableColumn id="58" xr3:uid="{00000000-0010-0000-0000-00003A000000}" name="stories"/>
+    <tableColumn id="59" xr3:uid="{00000000-0010-0000-0000-00003B000000}" name="taxdist"/>
+    <tableColumn id="60" xr3:uid="{00000000-0010-0000-0000-00003C000000}" name="taxpayer"/>
+    <tableColumn id="61" xr3:uid="{00000000-0010-0000-0000-00003D000000}" name="total2019revreported"/>
+    <tableColumn id="62" xr3:uid="{00000000-0010-0000-0000-00003E000000}" name="total2020revreported"/>
+    <tableColumn id="63" xr3:uid="{00000000-0010-0000-0000-00003F000000}" name="totalexp"/>
+    <tableColumn id="64" xr3:uid="{00000000-0010-0000-0000-000040000000}" name="totalrev"/>
+    <tableColumn id="65" xr3:uid="{00000000-0010-0000-0000-000041000000}" name="vacancy"/>
+    <tableColumn id="66" xr3:uid="{00000000-0010-0000-0000-000042000000}" name="yearbuilt"/>
+    <tableColumn id="67" xr3:uid="{00000000-0010-0000-0000-000043000000}" name="2023permit/partial/demovalue"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4011,11 +4024,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BV307"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BO307"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="64" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="BK1" zoomScale="64" workbookViewId="0">
+      <selection activeCell="BX16" sqref="BX16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.1" x14ac:dyDescent="0.8"/>
@@ -4271,14 +4284,14 @@
         <v>2024020150000</v>
       </c>
       <c r="C2" s="5" t="b">
-        <f>A2=B2</f>
+        <f t="shared" ref="C2:C65" si="0">A2=B2</f>
         <v>1</v>
       </c>
       <c r="D2" t="s">
         <v>976</v>
       </c>
       <c r="E2" t="str">
-        <f>LEFT(F2,18)</f>
+        <f t="shared" ref="E2:E65" si="1">LEFT(F2,18)</f>
         <v>02-02-402-015-0000</v>
       </c>
       <c r="F2" t="s">
@@ -4353,14 +4366,14 @@
         <v>2024020160000</v>
       </c>
       <c r="C3" s="5" t="b">
-        <f>A3=B3</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D3" t="s">
         <v>979</v>
       </c>
       <c r="E3" t="str">
-        <f>LEFT(F3,18)</f>
+        <f t="shared" si="1"/>
         <v>02-02-402-016-0000</v>
       </c>
       <c r="F3" t="s">
@@ -4435,14 +4448,14 @@
         <v>2024020170000</v>
       </c>
       <c r="C4" s="5" t="b">
-        <f>A4=B4</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D4" t="s">
         <v>980</v>
       </c>
       <c r="E4" t="str">
-        <f>LEFT(F4,18)</f>
+        <f t="shared" si="1"/>
         <v>02-02-402-017-0000</v>
       </c>
       <c r="F4" t="s">
@@ -4517,14 +4530,14 @@
         <v>2093150120000</v>
       </c>
       <c r="C5" s="5" t="b">
-        <f>A5=B5</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D5" t="s">
         <v>981</v>
       </c>
       <c r="E5" t="str">
-        <f>LEFT(F5,18)</f>
+        <f t="shared" si="1"/>
         <v>02-09-315-012-0000</v>
       </c>
       <c r="F5" t="s">
@@ -4599,14 +4612,14 @@
         <v>3213040320000</v>
       </c>
       <c r="C6" s="5" t="b">
-        <f>A6=B6</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D6" t="s">
         <v>987</v>
       </c>
       <c r="E6" t="str">
-        <f>LEFT(F6,18)</f>
+        <f t="shared" si="1"/>
         <v>03-21-304-032-0000</v>
       </c>
       <c r="F6" t="s">
@@ -4681,14 +4694,14 @@
         <v>3342002040000</v>
       </c>
       <c r="C7" s="5" t="b">
-        <f>A7=B7</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D7" t="s">
         <v>943</v>
       </c>
       <c r="E7" t="str">
-        <f>LEFT(F7,18)</f>
+        <f t="shared" si="1"/>
         <v>03-34-200-204-0000</v>
       </c>
       <c r="F7" t="s">
@@ -4763,14 +4776,14 @@
         <v>4223020420000</v>
       </c>
       <c r="C8" s="5" t="b">
-        <f>A8=B8</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D8" t="s">
         <v>972</v>
       </c>
       <c r="E8" t="str">
-        <f>LEFT(F8,18)</f>
+        <f t="shared" si="1"/>
         <v>04-22-302-042-0000</v>
       </c>
       <c r="F8" t="s">
@@ -4845,14 +4858,14 @@
         <v>6281080270000</v>
       </c>
       <c r="C9" s="5" t="b">
-        <f>A9=B9</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D9" t="s">
         <v>957</v>
       </c>
       <c r="E9" t="str">
-        <f>LEFT(F9,18)</f>
+        <f t="shared" si="1"/>
         <v>06-28-108-027-0000</v>
       </c>
       <c r="F9" t="s">
@@ -4927,14 +4940,14 @@
         <v>7162000300000</v>
       </c>
       <c r="C10" s="5" t="b">
-        <f>A10=B10</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D10" t="s">
         <v>936</v>
       </c>
       <c r="E10" t="str">
-        <f>LEFT(F10,18)</f>
+        <f t="shared" si="1"/>
         <v>07-16-200-030-0000</v>
       </c>
       <c r="F10" t="s">
@@ -5006,14 +5019,14 @@
         <v>9193010100000</v>
       </c>
       <c r="C11" s="5" t="b">
-        <f>A11=B11</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D11" t="s">
         <v>968</v>
       </c>
       <c r="E11" t="str">
-        <f>LEFT(F11,18)</f>
+        <f t="shared" si="1"/>
         <v>09-19-301-010-0000</v>
       </c>
       <c r="F11" t="s">
@@ -5088,14 +5101,14 @@
         <v>9283000330000</v>
       </c>
       <c r="C12" s="5" t="b">
-        <f>A12=B12</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D12" t="s">
         <v>921</v>
       </c>
       <c r="E12" t="str">
-        <f>LEFT(F12,18)</f>
+        <f t="shared" si="1"/>
         <v>09-28-300-033-0000</v>
       </c>
       <c r="F12" t="s">
@@ -5167,14 +5180,14 @@
         <v>10251040140000</v>
       </c>
       <c r="C13" s="5" t="b">
-        <f>A13=B13</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D13" t="s">
         <v>953</v>
       </c>
       <c r="E13" t="str">
-        <f>LEFT(F13,18)</f>
+        <f t="shared" si="1"/>
         <v>10-25-104-014-0000</v>
       </c>
       <c r="F13" t="s">
@@ -5249,14 +5262,14 @@
         <v>10252030110000</v>
       </c>
       <c r="C14" s="5" t="b">
-        <f>A14=B14</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D14" t="s">
         <v>918</v>
       </c>
       <c r="E14" t="str">
-        <f>LEFT(F14,18)</f>
+        <f t="shared" si="1"/>
         <v>10-25-203-011-0000</v>
       </c>
       <c r="F14" t="s">
@@ -5328,14 +5341,14 @@
         <v>10272050470000</v>
       </c>
       <c r="C15" s="5" t="b">
-        <f>A15=B15</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D15" t="s">
         <v>939</v>
       </c>
       <c r="E15" t="str">
-        <f>LEFT(F15,18)</f>
+        <f t="shared" si="1"/>
         <v>10-27-205-047-0000</v>
       </c>
       <c r="F15" t="s">
@@ -5410,14 +5423,14 @@
         <v>10273070270000</v>
       </c>
       <c r="C16" s="5" t="b">
-        <f>A16=B16</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D16" t="s">
         <v>928</v>
       </c>
       <c r="E16" t="str">
-        <f>LEFT(F16,18)</f>
+        <f t="shared" si="1"/>
         <v>10-27-307-027-0000</v>
       </c>
       <c r="F16" t="s">
@@ -5489,14 +5502,14 @@
         <v>10273071620000</v>
       </c>
       <c r="C17" s="5" t="b">
-        <f>A17=B17</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D17" t="s">
         <v>970</v>
       </c>
       <c r="E17" t="str">
-        <f>LEFT(F17,18)</f>
+        <f t="shared" si="1"/>
         <v>10-27-307-162-0000</v>
       </c>
       <c r="F17" t="s">
@@ -5571,14 +5584,14 @@
         <v>10352030090000</v>
       </c>
       <c r="C18" s="5" t="b">
-        <f>A18=B18</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D18" t="s">
         <v>924</v>
       </c>
       <c r="E18" t="str">
-        <f>LEFT(F18,18)</f>
+        <f t="shared" si="1"/>
         <v>10-35-203-009-0000</v>
       </c>
       <c r="F18" t="s">
@@ -5650,14 +5663,14 @@
         <v>11302100160000</v>
       </c>
       <c r="C19" s="5" t="b">
-        <f>A19=B19</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D19" t="s">
         <v>913</v>
       </c>
       <c r="E19" t="str">
-        <f>LEFT(F19,18)</f>
+        <f t="shared" si="1"/>
         <v>11-30-210-016-0000</v>
       </c>
       <c r="F19" t="s">
@@ -5729,14 +5742,14 @@
         <v>12324030250000</v>
       </c>
       <c r="C20" s="5" t="b">
-        <f>A20=B20</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D20" t="s">
         <v>962</v>
       </c>
       <c r="E20" t="str">
-        <f>LEFT(F20,18)</f>
+        <f t="shared" si="1"/>
         <v>12-32-403-025-0000</v>
       </c>
       <c r="F20" t="s">
@@ -5811,14 +5824,14 @@
         <v>12343000160000</v>
       </c>
       <c r="C21" s="5" t="b">
-        <f>A21=B21</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D21" t="s">
         <v>966</v>
       </c>
       <c r="E21" t="str">
-        <f>LEFT(F21,18)</f>
+        <f t="shared" si="1"/>
         <v>12-34-300-016-0000</v>
       </c>
       <c r="F21" t="s">
@@ -5893,14 +5906,14 @@
         <v>13012300400000</v>
       </c>
       <c r="C22" s="5" t="b">
-        <f>A22=B22</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D22" t="s">
         <v>538</v>
       </c>
       <c r="E22" t="str">
-        <f>LEFT(F22,18)</f>
+        <f t="shared" si="1"/>
         <v>13-01-230-040-0000</v>
       </c>
       <c r="F22" t="s">
@@ -5975,14 +5988,14 @@
         <v>13131050090000</v>
       </c>
       <c r="C23" s="5" t="b">
-        <f>A23=B23</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D23" t="s">
         <v>507</v>
       </c>
       <c r="E23" t="str">
-        <f>LEFT(F23,18)</f>
+        <f t="shared" si="1"/>
         <v>13-13-105-009-0000</v>
       </c>
       <c r="F23" t="s">
@@ -6057,14 +6070,14 @@
         <v>13234020270000</v>
       </c>
       <c r="C24" s="5" t="b">
-        <f>A24=B24</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D24" t="s">
         <v>428</v>
       </c>
       <c r="E24" t="str">
-        <f>LEFT(F24,18)</f>
+        <f t="shared" si="1"/>
         <v>13-23-402-027-0000</v>
       </c>
       <c r="F24" t="s">
@@ -6139,14 +6152,14 @@
         <v>13254040010000</v>
       </c>
       <c r="C25" s="5" t="b">
-        <f>A25=B25</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D25" t="s">
         <v>461</v>
       </c>
       <c r="E25" t="str">
-        <f>LEFT(F25,18)</f>
+        <f t="shared" si="1"/>
         <v>13-25-404-001-0000</v>
       </c>
       <c r="F25" t="s">
@@ -6221,14 +6234,14 @@
         <v>14301130300000</v>
       </c>
       <c r="C26" s="5" t="b">
-        <f>A26=B26</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D26" t="s">
         <v>283</v>
       </c>
       <c r="E26" t="str">
-        <f>LEFT(F26,18)</f>
+        <f t="shared" si="1"/>
         <v>14-30-113-030-0000</v>
       </c>
       <c r="F26" t="s">
@@ -6309,14 +6322,14 @@
         <v>14301130310000</v>
       </c>
       <c r="C27" s="5" t="b">
-        <f>A27=B27</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D27" t="s">
         <v>285</v>
       </c>
       <c r="E27" t="str">
-        <f>LEFT(F27,18)</f>
+        <f t="shared" si="1"/>
         <v>14-30-113-031-0000</v>
       </c>
       <c r="F27" t="s">
@@ -6397,14 +6410,14 @@
         <v>14303190460000</v>
       </c>
       <c r="C28" s="5" t="b">
-        <f>A28=B28</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D28" t="s">
         <v>517</v>
       </c>
       <c r="E28" t="str">
-        <f>LEFT(F28,18)</f>
+        <f t="shared" si="1"/>
         <v>14-30-319-046-0000</v>
       </c>
       <c r="F28" t="s">
@@ -6482,14 +6495,14 @@
         <v>14312100350000</v>
       </c>
       <c r="C29" s="5" t="b">
-        <f>A29=B29</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D29" t="s">
         <v>114</v>
       </c>
       <c r="E29" t="str">
-        <f>LEFT(F29,18)</f>
+        <f t="shared" si="1"/>
         <v>14-31-210-035-0000</v>
       </c>
       <c r="F29" t="s">
@@ -6561,14 +6574,14 @@
         <v>14323020161001</v>
       </c>
       <c r="C30" s="5" t="b">
-        <f>A30=B30</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D30" t="s">
         <v>133</v>
       </c>
       <c r="E30" t="str">
-        <f>LEFT(F30,18)</f>
+        <f t="shared" si="1"/>
         <v>14-32-302-016-1001</v>
       </c>
       <c r="F30" t="s">
@@ -6640,14 +6653,14 @@
         <v>14323090100000</v>
       </c>
       <c r="C31" s="5" t="b">
-        <f>A31=B31</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D31" t="s">
         <v>136</v>
       </c>
       <c r="E31" t="str">
-        <f>LEFT(F31,18)</f>
+        <f t="shared" si="1"/>
         <v>14-32-309-010-0000</v>
       </c>
       <c r="F31" t="s">
@@ -6719,14 +6732,14 @@
         <v>14323090240000</v>
       </c>
       <c r="C32" s="5" t="b">
-        <f>A32=B32</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D32" t="s">
         <v>139</v>
       </c>
       <c r="E32" t="str">
-        <f>LEFT(F32,18)</f>
+        <f t="shared" si="1"/>
         <v>14-32-309-024-0000</v>
       </c>
       <c r="F32" t="s">
@@ -6798,14 +6811,14 @@
         <v>15021010070000</v>
       </c>
       <c r="C33" s="5" t="b">
-        <f>A33=B33</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D33" t="s">
         <v>856</v>
       </c>
       <c r="E33" t="str">
-        <f>LEFT(F33,18)</f>
+        <f t="shared" si="1"/>
         <v>15-02-101-007-0000</v>
       </c>
       <c r="F33" t="s">
@@ -6877,14 +6890,14 @@
         <v>15043100090000</v>
       </c>
       <c r="C34" s="5" t="b">
-        <f>A34=B34</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D34" t="s">
         <v>755</v>
       </c>
       <c r="E34" t="str">
-        <f>LEFT(F34,18)</f>
+        <f t="shared" si="1"/>
         <v>15-04-310-009-0000</v>
       </c>
       <c r="F34" t="s">
@@ -6956,14 +6969,14 @@
         <v>15044120110000</v>
       </c>
       <c r="C35" s="5" t="b">
-        <f>A35=B35</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D35" t="s">
         <v>768</v>
       </c>
       <c r="E35" t="str">
-        <f>LEFT(F35,18)</f>
+        <f t="shared" si="1"/>
         <v>15-04-412-011-0000</v>
       </c>
       <c r="F35" t="s">
@@ -7035,14 +7048,14 @@
         <v>15064000360000</v>
       </c>
       <c r="C36" s="5" t="b">
-        <f>A36=B36</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D36" t="s">
         <v>771</v>
       </c>
       <c r="E36" t="str">
-        <f>LEFT(F36,18)</f>
+        <f t="shared" si="1"/>
         <v>15-06-400-036-0000</v>
       </c>
       <c r="F36" t="s">
@@ -7114,14 +7127,14 @@
         <v>15094000760000</v>
       </c>
       <c r="C37" s="5" t="b">
-        <f>A37=B37</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D37" t="s">
         <v>765</v>
       </c>
       <c r="E37" t="str">
-        <f>LEFT(F37,18)</f>
+        <f t="shared" si="1"/>
         <v>15-09-400-076-0000</v>
       </c>
       <c r="F37" t="s">
@@ -7193,14 +7206,14 @@
         <v>15094001030000</v>
       </c>
       <c r="C38" s="5" t="b">
-        <f>A38=B38</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D38" t="s">
         <v>762</v>
       </c>
       <c r="E38" t="str">
-        <f>LEFT(F38,18)</f>
+        <f t="shared" si="1"/>
         <v>15-09-400-103-0000</v>
       </c>
       <c r="F38" t="s">
@@ -7272,14 +7285,14 @@
         <v>15094001051001</v>
       </c>
       <c r="C39" s="5" t="b">
-        <f>A39=B39</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D39" t="s">
         <v>993</v>
       </c>
       <c r="E39" t="str">
-        <f>LEFT(F39,18)</f>
+        <f t="shared" si="1"/>
         <v>15-09-400-105-1001</v>
       </c>
       <c r="F39" t="s">
@@ -7348,14 +7361,14 @@
         <v>15094001051002</v>
       </c>
       <c r="C40" s="5" t="b">
-        <f>A40=B40</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D40" t="s">
         <v>997</v>
       </c>
       <c r="E40" t="str">
-        <f>LEFT(F40,18)</f>
+        <f t="shared" si="1"/>
         <v>15-09-400-105-1002</v>
       </c>
       <c r="F40" t="s">
@@ -7424,14 +7437,14 @@
         <v>15094001051003</v>
       </c>
       <c r="C41" s="5" t="b">
-        <f>A41=B41</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D41" t="s">
         <v>999</v>
       </c>
       <c r="E41" t="str">
-        <f>LEFT(F41,18)</f>
+        <f t="shared" si="1"/>
         <v>15-09-400-105-1003</v>
       </c>
       <c r="F41" t="s">
@@ -7500,14 +7513,14 @@
         <v>15113590190000</v>
       </c>
       <c r="C42" s="5" t="b">
-        <f>A42=B42</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D42" t="s">
         <v>644</v>
       </c>
       <c r="E42" t="str">
-        <f>LEFT(F42,18)</f>
+        <f t="shared" si="1"/>
         <v>15-11-359-019-0000</v>
       </c>
       <c r="F42" t="s">
@@ -7588,14 +7601,14 @@
         <v>15172000110000</v>
       </c>
       <c r="C43" s="5" t="b">
-        <f>A43=B43</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D43" t="s">
         <v>774</v>
       </c>
       <c r="E43" t="str">
-        <f>LEFT(F43,18)</f>
+        <f t="shared" si="1"/>
         <v>15-17-200-011-0000</v>
       </c>
       <c r="F43" t="s">
@@ -7667,14 +7680,14 @@
         <v>15173040650000</v>
       </c>
       <c r="C44" s="5" t="b">
-        <f>A44=B44</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D44" t="s">
         <v>891</v>
       </c>
       <c r="E44" t="str">
-        <f>LEFT(F44,18)</f>
+        <f t="shared" si="1"/>
         <v>15-17-304-065-0000</v>
       </c>
       <c r="F44" t="s">
@@ -7746,14 +7759,14 @@
         <v>15223000130000</v>
       </c>
       <c r="C45" s="5" t="b">
-        <f>A45=B45</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D45" t="s">
         <v>759</v>
       </c>
       <c r="E45" t="str">
-        <f>LEFT(F45,18)</f>
+        <f t="shared" si="1"/>
         <v>15-22-300-013-0000</v>
       </c>
       <c r="F45" t="s">
@@ -7825,14 +7838,14 @@
         <v>16033160110000</v>
       </c>
       <c r="C46" s="5" t="b">
-        <f>A46=B46</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D46" t="s">
         <v>141</v>
       </c>
       <c r="E46" t="str">
-        <f>LEFT(F46,18)</f>
+        <f t="shared" si="1"/>
         <v>16-03-316-011-0000</v>
       </c>
       <c r="F46" t="s">
@@ -7904,14 +7917,14 @@
         <v>16102000390000</v>
       </c>
       <c r="C47" s="5" t="b">
-        <f>A47=B47</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D47" t="s">
         <v>143</v>
       </c>
       <c r="E47" t="str">
-        <f>LEFT(F47,18)</f>
+        <f t="shared" si="1"/>
         <v>16-10-200-039-0000</v>
       </c>
       <c r="F47" t="s">
@@ -7983,14 +7996,14 @@
         <v>16102020020000</v>
       </c>
       <c r="C48" s="5" t="b">
-        <f>A48=B48</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D48" t="s">
         <v>145</v>
       </c>
       <c r="E48" t="str">
-        <f>LEFT(F48,18)</f>
+        <f t="shared" si="1"/>
         <v>16-10-202-002-0000</v>
       </c>
       <c r="F48" t="s">
@@ -8062,14 +8075,14 @@
         <v>16104010070000</v>
       </c>
       <c r="C49" s="5" t="b">
-        <f>A49=B49</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D49" t="s">
         <v>147</v>
       </c>
       <c r="E49" t="str">
-        <f>LEFT(F49,18)</f>
+        <f t="shared" si="1"/>
         <v>16-10-401-007-0000</v>
       </c>
       <c r="F49" t="s">
@@ -8141,14 +8154,14 @@
         <v>16114100370000</v>
       </c>
       <c r="C50" s="5" t="b">
-        <f>A50=B50</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D50" t="s">
         <v>150</v>
       </c>
       <c r="E50" t="str">
-        <f>LEFT(F50,18)</f>
+        <f t="shared" si="1"/>
         <v>16-11-410-037-0000</v>
       </c>
       <c r="F50" t="s">
@@ -8220,14 +8233,14 @@
         <v>16121130320000</v>
       </c>
       <c r="C51" s="5" t="b">
-        <f>A51=B51</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D51" t="s">
         <v>152</v>
       </c>
       <c r="E51" t="str">
-        <f>LEFT(F51,18)</f>
+        <f t="shared" si="1"/>
         <v>16-12-113-032-0000</v>
       </c>
       <c r="F51" t="s">
@@ -8299,14 +8312,14 @@
         <v>16123010190000</v>
       </c>
       <c r="C52" s="5" t="b">
-        <f>A52=B52</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D52" t="s">
         <v>154</v>
       </c>
       <c r="E52" t="str">
-        <f>LEFT(F52,18)</f>
+        <f t="shared" si="1"/>
         <v>16-12-301-019-0000</v>
       </c>
       <c r="F52" t="s">
@@ -8378,14 +8391,14 @@
         <v>16123010250000</v>
       </c>
       <c r="C53" s="5" t="b">
-        <f>A53=B53</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D53" t="s">
         <v>157</v>
       </c>
       <c r="E53" t="str">
-        <f>LEFT(F53,18)</f>
+        <f t="shared" si="1"/>
         <v>16-12-301-025-0000</v>
       </c>
       <c r="F53" t="s">
@@ -8457,14 +8470,14 @@
         <v>16123070230000</v>
       </c>
       <c r="C54" s="5" t="b">
-        <f>A54=B54</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D54" t="s">
         <v>160</v>
       </c>
       <c r="E54" t="str">
-        <f>LEFT(F54,18)</f>
+        <f t="shared" si="1"/>
         <v>16-12-307-023-0000</v>
       </c>
       <c r="F54" t="s">
@@ -8536,14 +8549,14 @@
         <v>16123070240000</v>
       </c>
       <c r="C55" s="5" t="b">
-        <f>A55=B55</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D55" t="s">
         <v>162</v>
       </c>
       <c r="E55" t="str">
-        <f>LEFT(F55,18)</f>
+        <f t="shared" si="1"/>
         <v>16-12-307-024-0000</v>
       </c>
       <c r="F55" t="s">
@@ -8615,14 +8628,14 @@
         <v>16134220020000</v>
       </c>
       <c r="C56" s="5" t="b">
-        <f>A56=B56</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D56" t="s">
         <v>164</v>
       </c>
       <c r="E56" t="str">
-        <f>LEFT(F56,18)</f>
+        <f t="shared" si="1"/>
         <v>16-13-422-002-0000</v>
       </c>
       <c r="F56" t="s">
@@ -8694,14 +8707,14 @@
         <v>16153210080000</v>
       </c>
       <c r="C57" s="5" t="b">
-        <f>A57=B57</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D57" t="s">
         <v>167</v>
       </c>
       <c r="E57" t="str">
-        <f>LEFT(F57,18)</f>
+        <f t="shared" si="1"/>
         <v>16-15-321-008-0000</v>
       </c>
       <c r="F57" t="s">
@@ -8773,14 +8786,14 @@
         <v>16242190010000</v>
       </c>
       <c r="C58" s="5" t="b">
-        <f>A58=B58</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D58" t="s">
         <v>90</v>
       </c>
       <c r="E58" t="str">
-        <f>LEFT(F58,18)</f>
+        <f t="shared" si="1"/>
         <v>16-24-219-001-0000</v>
       </c>
       <c r="F58" t="s">
@@ -8852,14 +8865,14 @@
         <v>16242230010000</v>
       </c>
       <c r="C59" s="5" t="b">
-        <f>A59=B59</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D59" t="s">
         <v>108</v>
       </c>
       <c r="E59" t="str">
-        <f>LEFT(F59,18)</f>
+        <f t="shared" si="1"/>
         <v>16-24-223-001-0000</v>
       </c>
       <c r="F59" t="s">
@@ -8931,14 +8944,14 @@
         <v>16242230020000</v>
       </c>
       <c r="C60" s="5" t="b">
-        <f>A60=B60</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D60" t="s">
         <v>106</v>
       </c>
       <c r="E60" t="str">
-        <f>LEFT(F60,18)</f>
+        <f t="shared" si="1"/>
         <v>16-24-223-002-0000</v>
       </c>
       <c r="F60" t="s">
@@ -9010,14 +9023,14 @@
         <v>16244030550000</v>
       </c>
       <c r="C61" s="5" t="b">
-        <f>A61=B61</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D61" t="s">
         <v>104</v>
       </c>
       <c r="E61" t="str">
-        <f>LEFT(F61,18)</f>
+        <f t="shared" si="1"/>
         <v>16-24-403-055-0000</v>
       </c>
       <c r="F61" t="s">
@@ -9089,14 +9102,14 @@
         <v>16244040030000</v>
       </c>
       <c r="C62" s="5" t="b">
-        <f>A62=B62</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D62" t="s">
         <v>102</v>
       </c>
       <c r="E62" t="str">
-        <f>LEFT(F62,18)</f>
+        <f t="shared" si="1"/>
         <v>16-24-404-003-0000</v>
       </c>
       <c r="F62" t="s">
@@ -9168,14 +9181,14 @@
         <v>16244090380000</v>
       </c>
       <c r="C63" s="5" t="b">
-        <f>A63=B63</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D63" t="s">
         <v>99</v>
       </c>
       <c r="E63" t="str">
-        <f>LEFT(F63,18)</f>
+        <f t="shared" si="1"/>
         <v>16-24-409-038-0000</v>
       </c>
       <c r="F63" t="s">
@@ -9247,14 +9260,14 @@
         <v>16244090400000</v>
       </c>
       <c r="C64" s="5" t="b">
-        <f>A64=B64</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D64" t="s">
         <v>97</v>
       </c>
       <c r="E64" t="str">
-        <f>LEFT(F64,18)</f>
+        <f t="shared" si="1"/>
         <v>16-24-409-040-0000</v>
       </c>
       <c r="F64" t="s">
@@ -9326,14 +9339,14 @@
         <v>16244100010000</v>
       </c>
       <c r="C65" s="5" t="b">
-        <f>A65=B65</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D65" t="s">
         <v>94</v>
       </c>
       <c r="E65" t="str">
-        <f>LEFT(F65,18)</f>
+        <f t="shared" si="1"/>
         <v>16-24-410-001-0000</v>
       </c>
       <c r="F65" t="s">
@@ -9405,14 +9418,14 @@
         <v>16244110010000</v>
       </c>
       <c r="C66" s="5" t="b">
-        <f>A66=B66</f>
+        <f t="shared" ref="C66:C129" si="2">A66=B66</f>
         <v>1</v>
       </c>
       <c r="D66" t="s">
         <v>111</v>
       </c>
       <c r="E66" t="str">
-        <f>LEFT(F66,18)</f>
+        <f t="shared" ref="E66:E129" si="3">LEFT(F66,18)</f>
         <v>16-24-411-001-0000</v>
       </c>
       <c r="F66" t="s">
@@ -9484,14 +9497,14 @@
         <v>16244260010000</v>
       </c>
       <c r="C67" s="5" t="b">
-        <f>A67=B67</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D67" t="s">
         <v>169</v>
       </c>
       <c r="E67" t="str">
-        <f>LEFT(F67,18)</f>
+        <f t="shared" si="3"/>
         <v>16-24-426-001-0000</v>
       </c>
       <c r="F67" t="s">
@@ -9563,14 +9576,14 @@
         <v>16244260020000</v>
       </c>
       <c r="C68" s="5" t="b">
-        <f>A68=B68</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D68" t="s">
         <v>171</v>
       </c>
       <c r="E68" t="str">
-        <f>LEFT(F68,18)</f>
+        <f t="shared" si="3"/>
         <v>16-24-426-002-0000</v>
       </c>
       <c r="F68" t="s">
@@ -9642,14 +9655,14 @@
         <v>16245040170000</v>
       </c>
       <c r="C69" s="5" t="b">
-        <f>A69=B69</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D69" t="s">
         <v>86</v>
       </c>
       <c r="E69" t="str">
-        <f>LEFT(F69,18)</f>
+        <f t="shared" si="3"/>
         <v>16-24-504-017-0000</v>
       </c>
       <c r="F69" t="s">
@@ -9721,14 +9734,14 @@
         <v>16252140010000</v>
       </c>
       <c r="C70" s="5" t="b">
-        <f>A70=B70</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D70" t="s">
         <v>174</v>
       </c>
       <c r="E70" t="str">
-        <f>LEFT(F70,18)</f>
+        <f t="shared" si="3"/>
         <v>16-25-214-001-0000</v>
       </c>
       <c r="F70" t="s">
@@ -9800,14 +9813,14 @@
         <v>16272090030000</v>
       </c>
       <c r="C71" s="5" t="b">
-        <f>A71=B71</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D71" t="s">
         <v>177</v>
       </c>
       <c r="E71" t="str">
-        <f>LEFT(F71,18)</f>
+        <f t="shared" si="3"/>
         <v>16-27-209-003-0000</v>
       </c>
       <c r="F71" t="s">
@@ -9879,14 +9892,14 @@
         <v>16341030120000</v>
       </c>
       <c r="C72" s="5" t="b">
-        <f>A72=B72</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D72" t="s">
         <v>179</v>
       </c>
       <c r="E72" t="str">
-        <f>LEFT(F72,18)</f>
+        <f t="shared" si="3"/>
         <v>16-34-103-012-0000</v>
       </c>
       <c r="F72" t="s">
@@ -9958,14 +9971,14 @@
         <v>16342000150000</v>
       </c>
       <c r="C73" s="5" t="b">
-        <f>A73=B73</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D73" t="s">
         <v>181</v>
       </c>
       <c r="E73" t="str">
-        <f>LEFT(F73,18)</f>
+        <f t="shared" si="3"/>
         <v>16-34-200-015-0000</v>
       </c>
       <c r="F73" t="s">
@@ -10037,14 +10050,14 @@
         <v>16342100020000</v>
       </c>
       <c r="C74" s="5" t="b">
-        <f>A74=B74</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D74" t="s">
         <v>183</v>
       </c>
       <c r="E74" t="str">
-        <f>LEFT(F74,18)</f>
+        <f t="shared" si="3"/>
         <v>16-34-210-002-0000</v>
       </c>
       <c r="F74" t="s">
@@ -10116,14 +10129,14 @@
         <v>16352000010000</v>
       </c>
       <c r="C75" s="5" t="b">
-        <f>A75=B75</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D75" t="s">
         <v>185</v>
       </c>
       <c r="E75" t="str">
-        <f>LEFT(F75,18)</f>
+        <f t="shared" si="3"/>
         <v>16-35-200-001-0000</v>
       </c>
       <c r="F75" t="s">
@@ -10195,14 +10208,14 @@
         <v>16354060030000</v>
       </c>
       <c r="C76" s="5" t="b">
-        <f>A76=B76</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D76" t="s">
         <v>120</v>
       </c>
       <c r="E76" t="str">
-        <f>LEFT(F76,18)</f>
+        <f t="shared" si="3"/>
         <v>16-35-406-003-0000</v>
       </c>
       <c r="F76" t="s">
@@ -10283,14 +10296,14 @@
         <v>16362000010000</v>
       </c>
       <c r="C77" s="5" t="b">
-        <f>A77=B77</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D77" t="s">
         <v>188</v>
       </c>
       <c r="E77" t="str">
-        <f>LEFT(F77,18)</f>
+        <f t="shared" si="3"/>
         <v>16-36-200-001-0000</v>
       </c>
       <c r="F77" t="s">
@@ -10362,14 +10375,14 @@
         <v>16362000030000</v>
       </c>
       <c r="C78" s="5" t="b">
-        <f>A78=B78</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D78" t="s">
         <v>191</v>
       </c>
       <c r="E78" t="str">
-        <f>LEFT(F78,18)</f>
+        <f t="shared" si="3"/>
         <v>16-36-200-003-0000</v>
       </c>
       <c r="F78" t="s">
@@ -10441,14 +10454,14 @@
         <v>17032020530000</v>
       </c>
       <c r="C79" s="5" t="b">
-        <f>A79=B79</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D79" t="s">
         <v>424</v>
       </c>
       <c r="E79" t="str">
-        <f>LEFT(F79,18)</f>
+        <f t="shared" si="3"/>
         <v>17-03-202-053-0000</v>
       </c>
       <c r="F79" t="s">
@@ -10532,14 +10545,14 @@
         <v>17042170440000</v>
       </c>
       <c r="C80" s="5" t="b">
-        <f>A80=B80</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D80" t="s">
         <v>468</v>
       </c>
       <c r="E80" t="str">
-        <f>LEFT(F80,18)</f>
+        <f t="shared" si="3"/>
         <v>17-04-217-044-0000</v>
       </c>
       <c r="F80" t="s">
@@ -10620,14 +10633,14 @@
         <v>17051161020000</v>
       </c>
       <c r="C81" s="5" t="b">
-        <f>A81=B81</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D81" t="s">
         <v>504</v>
       </c>
       <c r="E81" t="str">
-        <f>LEFT(F81,18)</f>
+        <f t="shared" si="3"/>
         <v>17-05-116-102-0000</v>
       </c>
       <c r="F81" t="s">
@@ -10705,14 +10718,14 @@
         <v>17052120010000</v>
       </c>
       <c r="C82" s="5" t="b">
-        <f>A82=B82</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D82" t="s">
         <v>71</v>
       </c>
       <c r="E82" t="str">
-        <f>LEFT(F82,18)</f>
+        <f t="shared" si="3"/>
         <v>17-05-212-001-0000</v>
       </c>
       <c r="F82" t="s">
@@ -10796,14 +10809,14 @@
         <v>17054150030000</v>
       </c>
       <c r="C83" s="5" t="b">
-        <f>A83=B83</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D83" t="s">
         <v>193</v>
       </c>
       <c r="E83" t="str">
-        <f>LEFT(F83,18)</f>
+        <f t="shared" si="3"/>
         <v>17-05-415-003-0000</v>
       </c>
       <c r="F83" t="s">
@@ -10875,14 +10888,14 @@
         <v>17054150050000</v>
       </c>
       <c r="C84" s="5" t="b">
-        <f>A84=B84</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D84" t="s">
         <v>196</v>
       </c>
       <c r="E84" t="str">
-        <f>LEFT(F84,18)</f>
+        <f t="shared" si="3"/>
         <v>17-05-415-005-0000</v>
       </c>
       <c r="F84" t="s">
@@ -10954,14 +10967,14 @@
         <v>17062320520000</v>
       </c>
       <c r="C85" s="5" t="b">
-        <f>A85=B85</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D85" t="s">
         <v>531</v>
       </c>
       <c r="E85" t="str">
-        <f>LEFT(F85,18)</f>
+        <f t="shared" si="3"/>
         <v>17-06-232-052-0000</v>
       </c>
       <c r="F85" t="s">
@@ -11039,14 +11052,14 @@
         <v>17062320530000</v>
       </c>
       <c r="C86" s="5" t="b">
-        <f>A86=B86</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D86" t="s">
         <v>534</v>
       </c>
       <c r="E86" t="str">
-        <f>LEFT(F86,18)</f>
+        <f t="shared" si="3"/>
         <v>17-06-232-053-0000</v>
       </c>
       <c r="F86" t="s">
@@ -11124,14 +11137,14 @@
         <v>17062320540000</v>
       </c>
       <c r="C87" s="5" t="b">
-        <f>A87=B87</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D87" t="s">
         <v>536</v>
       </c>
       <c r="E87" t="str">
-        <f>LEFT(F87,18)</f>
+        <f t="shared" si="3"/>
         <v>17-06-232-054-0000</v>
       </c>
       <c r="F87" t="s">
@@ -11209,14 +11222,14 @@
         <v>17073010500000</v>
       </c>
       <c r="C88" s="5" t="b">
-        <f>A88=B88</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D88" t="s">
         <v>197</v>
       </c>
       <c r="E88" t="str">
-        <f>LEFT(F88,18)</f>
+        <f t="shared" si="3"/>
         <v>17-07-301-050-0000</v>
       </c>
       <c r="F88" t="s">
@@ -11288,14 +11301,14 @@
         <v>17073010510000</v>
       </c>
       <c r="C89" s="5" t="b">
-        <f>A89=B89</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D89" t="s">
         <v>199</v>
       </c>
       <c r="E89" t="str">
-        <f>LEFT(F89,18)</f>
+        <f t="shared" si="3"/>
         <v>17-07-301-051-0000</v>
       </c>
       <c r="F89" t="s">
@@ -11367,14 +11380,14 @@
         <v>17073120400000</v>
       </c>
       <c r="C90" s="5" t="b">
-        <f>A90=B90</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D90" t="s">
         <v>201</v>
       </c>
       <c r="E90" t="str">
-        <f>LEFT(F90,18)</f>
+        <f t="shared" si="3"/>
         <v>17-07-312-040-0000</v>
       </c>
       <c r="F90" t="s">
@@ -11446,14 +11459,14 @@
         <v>17074070050000</v>
       </c>
       <c r="C91" s="5" t="b">
-        <f>A91=B91</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D91" t="s">
         <v>204</v>
       </c>
       <c r="E91" t="str">
-        <f>LEFT(F91,18)</f>
+        <f t="shared" si="3"/>
         <v>17-07-407-005-0000</v>
       </c>
       <c r="F91" t="s">
@@ -11525,14 +11538,14 @@
         <v>17074120080000</v>
       </c>
       <c r="C92" s="5" t="b">
-        <f>A92=B92</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D92" t="s">
         <v>207</v>
       </c>
       <c r="E92" t="str">
-        <f>LEFT(F92,18)</f>
+        <f t="shared" si="3"/>
         <v>17-07-412-008-0000</v>
       </c>
       <c r="F92" t="s">
@@ -11604,14 +11617,14 @@
         <v>17074120210000</v>
       </c>
       <c r="C93" s="5" t="b">
-        <f>A93=B93</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D93" t="s">
         <v>210</v>
       </c>
       <c r="E93" t="str">
-        <f>LEFT(F93,18)</f>
+        <f t="shared" si="3"/>
         <v>17-07-412-021-0000</v>
       </c>
       <c r="F93" t="s">
@@ -11683,14 +11696,14 @@
         <v>17083100010000</v>
       </c>
       <c r="C94" s="5" t="b">
-        <f>A94=B94</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D94" t="s">
         <v>83</v>
       </c>
       <c r="E94" t="str">
-        <f>LEFT(F94,18)</f>
+        <f t="shared" si="3"/>
         <v>17-08-310-001-0000</v>
       </c>
       <c r="F94" t="s">
@@ -11762,14 +11775,14 @@
         <v>17083100020000</v>
       </c>
       <c r="C95" s="5" t="b">
-        <f>A95=B95</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D95" t="s">
         <v>93</v>
       </c>
       <c r="E95" t="str">
-        <f>LEFT(F95,18)</f>
+        <f t="shared" si="3"/>
         <v>17-08-310-002-0000</v>
       </c>
       <c r="F95" t="s">
@@ -11841,14 +11854,14 @@
         <v>17083110010000</v>
       </c>
       <c r="C96" s="5" t="b">
-        <f>A96=B96</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D96" t="s">
         <v>213</v>
       </c>
       <c r="E96" t="str">
-        <f>LEFT(F96,18)</f>
+        <f t="shared" si="3"/>
         <v>17-08-311-001-0000</v>
       </c>
       <c r="F96" t="s">
@@ -11920,14 +11933,14 @@
         <v>17083110020000</v>
       </c>
       <c r="C97" s="5" t="b">
-        <f>A97=B97</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D97" t="s">
         <v>215</v>
       </c>
       <c r="E97" t="str">
-        <f>LEFT(F97,18)</f>
+        <f t="shared" si="3"/>
         <v>17-08-311-002-0000</v>
       </c>
       <c r="F97" t="s">
@@ -11999,14 +12012,14 @@
         <v>17084100150000</v>
       </c>
       <c r="C98" s="5" t="b">
-        <f>A98=B98</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D98" t="s">
         <v>490</v>
       </c>
       <c r="E98" t="str">
-        <f>LEFT(F98,18)</f>
+        <f t="shared" si="3"/>
         <v>17-08-410-015-0000</v>
       </c>
       <c r="F98" t="s">
@@ -12084,14 +12097,14 @@
         <v>17084200010000</v>
       </c>
       <c r="C99" s="5" t="b">
-        <f>A99=B99</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D99" t="s">
         <v>500</v>
       </c>
       <c r="E99" t="str">
-        <f>LEFT(F99,18)</f>
+        <f t="shared" si="3"/>
         <v>17-08-420-001-0000</v>
       </c>
       <c r="F99" t="s">
@@ -12169,14 +12182,14 @@
         <v>17084230020000</v>
       </c>
       <c r="C100" s="5" t="b">
-        <f>A100=B100</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D100" t="s">
         <v>496</v>
       </c>
       <c r="E100" t="str">
-        <f>LEFT(F100,18)</f>
+        <f t="shared" si="3"/>
         <v>17-08-423-002-0000</v>
       </c>
       <c r="F100" t="s">
@@ -12254,14 +12267,14 @@
         <v>17084320020000</v>
       </c>
       <c r="C101" s="5" t="b">
-        <f>A101=B101</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D101" t="s">
         <v>411</v>
       </c>
       <c r="E101" t="str">
-        <f>LEFT(F101,18)</f>
+        <f t="shared" si="3"/>
         <v>17-08-432-002-0000</v>
       </c>
       <c r="F101" t="s">
@@ -12339,14 +12352,14 @@
         <v>17084320080000</v>
       </c>
       <c r="C102" s="5" t="b">
-        <f>A102=B102</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D102" t="s">
         <v>403</v>
       </c>
       <c r="E102" t="str">
-        <f>LEFT(F102,18)</f>
+        <f t="shared" si="3"/>
         <v>17-08-432-008-0000</v>
       </c>
       <c r="F102" t="s">
@@ -12424,14 +12437,14 @@
         <v>17084320090000</v>
       </c>
       <c r="C103" s="5" t="b">
-        <f>A103=B103</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D103" t="s">
         <v>418</v>
       </c>
       <c r="E103" t="str">
-        <f>LEFT(F103,18)</f>
+        <f t="shared" si="3"/>
         <v>17-08-432-009-0000</v>
       </c>
       <c r="F103" t="s">
@@ -12509,14 +12522,14 @@
         <v>17084320100000</v>
       </c>
       <c r="C104" s="5" t="b">
-        <f>A104=B104</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D104" t="s">
         <v>421</v>
       </c>
       <c r="E104" t="str">
-        <f>LEFT(F104,18)</f>
+        <f t="shared" si="3"/>
         <v>17-08-432-010-0000</v>
       </c>
       <c r="F104" t="s">
@@ -12594,14 +12607,14 @@
         <v>17084320150000</v>
       </c>
       <c r="C105" s="5" t="b">
-        <f>A105=B105</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D105" t="s">
         <v>407</v>
       </c>
       <c r="E105" t="str">
-        <f>LEFT(F105,18)</f>
+        <f t="shared" si="3"/>
         <v>17-08-432-015-0000</v>
       </c>
       <c r="F105" t="s">
@@ -12679,14 +12692,14 @@
         <v>17084400030000</v>
       </c>
       <c r="C106" s="5" t="b">
-        <f>A106=B106</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D106" t="s">
         <v>415</v>
       </c>
       <c r="E106" t="str">
-        <f>LEFT(F106,18)</f>
+        <f t="shared" si="3"/>
         <v>17-08-440-003-0000</v>
       </c>
       <c r="F106" t="s">
@@ -12764,14 +12777,14 @@
         <v>17091010060000</v>
       </c>
       <c r="C107" s="5" t="b">
-        <f>A107=B107</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D107" t="s">
         <v>217</v>
       </c>
       <c r="E107" t="str">
-        <f>LEFT(F107,18)</f>
+        <f t="shared" si="3"/>
         <v>17-09-101-006-0000</v>
       </c>
       <c r="F107" t="s">
@@ -12843,14 +12856,14 @@
         <v>17091010130000</v>
       </c>
       <c r="C108" s="5" t="b">
-        <f>A108=B108</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D108" t="s">
         <v>220</v>
       </c>
       <c r="E108" t="str">
-        <f>LEFT(F108,18)</f>
+        <f t="shared" si="3"/>
         <v>17-09-101-013-0000</v>
       </c>
       <c r="F108" t="s">
@@ -12922,14 +12935,14 @@
         <v>17092260080000</v>
       </c>
       <c r="C109" s="5" t="b">
-        <f>A109=B109</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D109" t="s">
         <v>470</v>
       </c>
       <c r="E109" t="str">
-        <f>LEFT(F109,18)</f>
+        <f t="shared" si="3"/>
         <v>17-09-226-008-0000</v>
       </c>
       <c r="F109" t="s">
@@ -13013,14 +13026,14 @@
         <v>17092540090000</v>
       </c>
       <c r="C110" s="5" t="b">
-        <f>A110=B110</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D110" t="s">
         <v>475</v>
       </c>
       <c r="E110" t="str">
-        <f>LEFT(F110,18)</f>
+        <f t="shared" si="3"/>
         <v>17-09-254-009-0000</v>
       </c>
       <c r="F110" t="s">
@@ -13107,14 +13120,14 @@
         <v>17093160020000</v>
       </c>
       <c r="C111" s="5" t="b">
-        <f>A111=B111</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D111" t="s">
         <v>493</v>
       </c>
       <c r="E111" t="str">
-        <f>LEFT(F111,18)</f>
+        <f t="shared" si="3"/>
         <v>17-09-316-002-0000</v>
       </c>
       <c r="F111" t="s">
@@ -13189,14 +13202,14 @@
         <v>17101330040000</v>
       </c>
       <c r="C112" s="5" t="b">
-        <f>A112=B112</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D112" t="s">
         <v>479</v>
       </c>
       <c r="E112" t="str">
-        <f>LEFT(F112,18)</f>
+        <f t="shared" si="3"/>
         <v>17-10-133-004-0000</v>
       </c>
       <c r="F112" t="s">
@@ -13277,14 +13290,14 @@
         <v>17101350420000</v>
       </c>
       <c r="C113" s="5" t="b">
-        <f>A113=B113</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D113" t="s">
         <v>542</v>
       </c>
       <c r="E113" t="str">
-        <f>LEFT(F113,18)</f>
+        <f t="shared" si="3"/>
         <v>17-10-135-042-0000</v>
       </c>
       <c r="F113" t="s">
@@ -13371,14 +13384,14 @@
         <v>17101350440000</v>
       </c>
       <c r="C114" s="5" t="b">
-        <f>A114=B114</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D114" t="s">
         <v>573</v>
       </c>
       <c r="E114" t="str">
-        <f>LEFT(F114,18)</f>
+        <f t="shared" si="3"/>
         <v>17-10-135-044-0000</v>
       </c>
       <c r="F114" t="s">
@@ -13444,14 +13457,14 @@
         <v>17103010010000</v>
       </c>
       <c r="C115" s="5" t="b">
-        <f>A115=B115</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D115" t="s">
         <v>486</v>
       </c>
       <c r="E115" t="str">
-        <f>LEFT(F115,18)</f>
+        <f t="shared" si="3"/>
         <v>17-10-301-001-0000</v>
       </c>
       <c r="F115" t="s">
@@ -13535,14 +13548,14 @@
         <v>17103010060000</v>
       </c>
       <c r="C116" s="5" t="b">
-        <f>A116=B116</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D116" t="s">
         <v>441</v>
       </c>
       <c r="E116" t="str">
-        <f>LEFT(F116,18)</f>
+        <f t="shared" si="3"/>
         <v>17-10-301-006-0000</v>
       </c>
       <c r="F116" t="s">
@@ -13629,14 +13642,14 @@
         <v>17103030070000</v>
       </c>
       <c r="C117" s="5" t="b">
-        <f>A117=B117</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D117" t="s">
         <v>558</v>
       </c>
       <c r="E117" t="str">
-        <f>LEFT(F117,18)</f>
+        <f t="shared" si="3"/>
         <v>17-10-303-007-0000</v>
       </c>
       <c r="F117" t="s">
@@ -13705,14 +13718,14 @@
         <v>17103110020000</v>
       </c>
       <c r="C118" s="5" t="b">
-        <f>A118=B118</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D118" t="s">
         <v>446</v>
       </c>
       <c r="E118" t="str">
-        <f>LEFT(F118,18)</f>
+        <f t="shared" si="3"/>
         <v>17-10-311-002-0000</v>
       </c>
       <c r="F118" t="s">
@@ -13799,14 +13812,14 @@
         <v>17103110150000</v>
       </c>
       <c r="C119" s="5" t="b">
-        <f>A119=B119</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D119" t="s">
         <v>546</v>
       </c>
       <c r="E119" t="str">
-        <f>LEFT(F119,18)</f>
+        <f t="shared" si="3"/>
         <v>17-10-311-015-0000</v>
       </c>
       <c r="F119" t="s">
@@ -13890,14 +13903,14 @@
         <v>17151010080000</v>
       </c>
       <c r="C120" s="5" t="b">
-        <f>A120=B120</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D120" t="s">
         <v>569</v>
       </c>
       <c r="E120" t="str">
-        <f>LEFT(F120,18)</f>
+        <f t="shared" si="3"/>
         <v>17-15-101-008-0000</v>
       </c>
       <c r="F120" t="s">
@@ -13966,14 +13979,14 @@
         <v>17151020140000</v>
       </c>
       <c r="C121" s="5" t="b">
-        <f>A121=B121</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D121" t="s">
         <v>453</v>
       </c>
       <c r="E121" t="str">
-        <f>LEFT(F121,18)</f>
+        <f t="shared" si="3"/>
         <v>17-15-102-014-0000</v>
       </c>
       <c r="F121" t="s">
@@ -14060,14 +14073,14 @@
         <v>17151020180000</v>
       </c>
       <c r="C122" s="5" t="b">
-        <f>A122=B122</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D122" t="s">
         <v>565</v>
       </c>
       <c r="E122" t="str">
-        <f>LEFT(F122,18)</f>
+        <f t="shared" si="3"/>
         <v>17-15-102-018-0000</v>
       </c>
       <c r="F122" t="s">
@@ -14133,14 +14146,14 @@
         <v>17162040350000</v>
       </c>
       <c r="C123" s="5" t="b">
-        <f>A123=B123</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D123" t="s">
         <v>550</v>
       </c>
       <c r="E123" t="str">
-        <f>LEFT(F123,18)</f>
+        <f t="shared" si="3"/>
         <v>17-16-204-035-0000</v>
       </c>
       <c r="F123" t="s">
@@ -14224,14 +14237,14 @@
         <v>17162040370000</v>
       </c>
       <c r="C124" s="5" t="b">
-        <f>A124=B124</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D124" t="s">
         <v>554</v>
       </c>
       <c r="E124" t="str">
-        <f>LEFT(F124,18)</f>
+        <f t="shared" si="3"/>
         <v>17-16-204-037-0000</v>
       </c>
       <c r="F124" t="s">
@@ -14300,14 +14313,14 @@
         <v>17162040420000</v>
       </c>
       <c r="C125" s="5" t="b">
-        <f>A125=B125</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D125" t="s">
         <v>521</v>
       </c>
       <c r="E125" t="str">
-        <f>LEFT(F125,18)</f>
+        <f t="shared" si="3"/>
         <v>17-16-204-042-0000</v>
       </c>
       <c r="F125" t="s">
@@ -14391,14 +14404,14 @@
         <v>17162060170000</v>
       </c>
       <c r="C126" s="5" t="b">
-        <f>A126=B126</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D126" t="s">
         <v>450</v>
       </c>
       <c r="E126" t="str">
-        <f>LEFT(F126,18)</f>
+        <f t="shared" si="3"/>
         <v>17-16-206-017-0000</v>
       </c>
       <c r="F126" t="s">
@@ -14485,14 +14498,14 @@
         <v>17162080150000</v>
       </c>
       <c r="C127" s="5" t="b">
-        <f>A127=B127</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D127" t="s">
         <v>458</v>
       </c>
       <c r="E127" t="str">
-        <f>LEFT(F127,18)</f>
+        <f t="shared" si="3"/>
         <v>17-16-208-015-0000</v>
       </c>
       <c r="F127" t="s">
@@ -14579,14 +14592,14 @@
         <v>17162200030000</v>
       </c>
       <c r="C128" s="5" t="b">
-        <f>A128=B128</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D128" t="s">
         <v>561</v>
       </c>
       <c r="E128" t="str">
-        <f>LEFT(F128,18)</f>
+        <f t="shared" si="3"/>
         <v>17-16-220-003-0000</v>
       </c>
       <c r="F128" t="s">
@@ -14655,14 +14668,14 @@
         <v>17162200090000</v>
       </c>
       <c r="C129" s="5" t="b">
-        <f>A129=B129</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D129" t="s">
         <v>525</v>
       </c>
       <c r="E129" t="str">
-        <f>LEFT(F129,18)</f>
+        <f t="shared" si="3"/>
         <v>17-16-220-009-0000</v>
       </c>
       <c r="F129" t="s">
@@ -14746,14 +14759,14 @@
         <v>17162200180000</v>
       </c>
       <c r="C130" s="5" t="b">
-        <f>A130=B130</f>
+        <f t="shared" ref="C130:C193" si="4">A130=B130</f>
         <v>1</v>
       </c>
       <c r="D130" t="s">
         <v>529</v>
       </c>
       <c r="E130" t="str">
-        <f>LEFT(F130,18)</f>
+        <f t="shared" ref="E130:E193" si="5">LEFT(F130,18)</f>
         <v>17-16-220-018-0000</v>
       </c>
       <c r="F130" t="s">
@@ -14837,14 +14850,14 @@
         <v>17163250190000</v>
       </c>
       <c r="C131" s="5" t="b">
-        <f>A131=B131</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D131" t="s">
         <v>78</v>
       </c>
       <c r="E131" t="str">
-        <f>LEFT(F131,18)</f>
+        <f t="shared" si="5"/>
         <v>17-16-325-019-0000</v>
       </c>
       <c r="F131" t="s">
@@ -14916,14 +14929,14 @@
         <v>17172030120000</v>
       </c>
       <c r="C132" s="5" t="b">
-        <f>A132=B132</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D132" t="s">
         <v>483</v>
       </c>
       <c r="E132" t="str">
-        <f>LEFT(F132,18)</f>
+        <f t="shared" si="5"/>
         <v>17-17-203-012-0000</v>
       </c>
       <c r="F132" t="s">
@@ -14995,14 +15008,14 @@
         <v>17204400080000</v>
       </c>
       <c r="C133" s="5" t="b">
-        <f>A133=B133</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D133" t="s">
         <v>223</v>
       </c>
       <c r="E133" t="str">
-        <f>LEFT(F133,18)</f>
+        <f t="shared" si="5"/>
         <v>17-20-440-008-0000</v>
       </c>
       <c r="F133" t="s">
@@ -15074,14 +15087,14 @@
         <v>17213070840000</v>
       </c>
       <c r="C134" s="5" t="b">
-        <f>A134=B134</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D134" t="s">
         <v>400</v>
       </c>
       <c r="E134" t="str">
-        <f>LEFT(F134,18)</f>
+        <f t="shared" si="5"/>
         <v>17-21-307-084-0000</v>
       </c>
       <c r="F134" t="s">
@@ -15153,14 +15166,14 @@
         <v>17213070870000</v>
       </c>
       <c r="C135" s="5" t="b">
-        <f>A135=B135</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D135" t="s">
         <v>465</v>
       </c>
       <c r="E135" t="str">
-        <f>LEFT(F135,18)</f>
+        <f t="shared" si="5"/>
         <v>17-21-307-087-0000</v>
       </c>
       <c r="F135" t="s">
@@ -15235,14 +15248,14 @@
         <v>17213270120000</v>
       </c>
       <c r="C136" s="5" t="b">
-        <f>A136=B136</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D136" t="s">
         <v>225</v>
       </c>
       <c r="E136" t="str">
-        <f>LEFT(F136,18)</f>
+        <f t="shared" si="5"/>
         <v>17-21-327-012-0000</v>
       </c>
       <c r="F136" t="s">
@@ -15314,14 +15327,14 @@
         <v>17292020040000</v>
       </c>
       <c r="C137" s="5" t="b">
-        <f>A137=B137</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D137" t="s">
         <v>227</v>
       </c>
       <c r="E137" t="str">
-        <f>LEFT(F137,18)</f>
+        <f t="shared" si="5"/>
         <v>17-29-202-004-0000</v>
       </c>
       <c r="F137" t="s">
@@ -15393,14 +15406,14 @@
         <v>17292020100000</v>
       </c>
       <c r="C138" s="5" t="b">
-        <f>A138=B138</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D138" t="s">
         <v>230</v>
       </c>
       <c r="E138" t="str">
-        <f>LEFT(F138,18)</f>
+        <f t="shared" si="5"/>
         <v>17-29-202-010-0000</v>
       </c>
       <c r="F138" t="s">
@@ -15472,14 +15485,14 @@
         <v>17302080050000</v>
       </c>
       <c r="C139" s="5" t="b">
-        <f>A139=B139</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D139" t="s">
         <v>233</v>
       </c>
       <c r="E139" t="str">
-        <f>LEFT(F139,18)</f>
+        <f t="shared" si="5"/>
         <v>17-30-208-005-0000</v>
       </c>
       <c r="F139" t="s">
@@ -15551,14 +15564,14 @@
         <v>17302090130000</v>
       </c>
       <c r="C140" s="5" t="b">
-        <f>A140=B140</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D140" t="s">
         <v>236</v>
       </c>
       <c r="E140" t="str">
-        <f>LEFT(F140,18)</f>
+        <f t="shared" si="5"/>
         <v>17-30-209-013-0000</v>
       </c>
       <c r="F140" t="s">
@@ -15630,14 +15643,14 @@
         <v>17302100170000</v>
       </c>
       <c r="C141" s="5" t="b">
-        <f>A141=B141</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D141" t="s">
         <v>239</v>
       </c>
       <c r="E141" t="str">
-        <f>LEFT(F141,18)</f>
+        <f t="shared" si="5"/>
         <v>17-30-210-017-0000</v>
       </c>
       <c r="F141" t="s">
@@ -15709,14 +15722,14 @@
         <v>17303000360000</v>
       </c>
       <c r="C142" s="5" t="b">
-        <f>A142=B142</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D142" t="s">
         <v>242</v>
       </c>
       <c r="E142" t="str">
-        <f>LEFT(F142,18)</f>
+        <f t="shared" si="5"/>
         <v>17-30-300-036-0000</v>
       </c>
       <c r="F142" t="s">
@@ -15788,14 +15801,14 @@
         <v>17303000640000</v>
       </c>
       <c r="C143" s="5" t="b">
-        <f>A143=B143</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D143" t="s">
         <v>245</v>
       </c>
       <c r="E143" t="str">
-        <f>LEFT(F143,18)</f>
+        <f t="shared" si="5"/>
         <v>17-30-300-064-0000</v>
       </c>
       <c r="F143" t="s">
@@ -15867,14 +15880,14 @@
         <v>17304000200000</v>
       </c>
       <c r="C144" s="5" t="b">
-        <f>A144=B144</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D144" t="s">
         <v>116</v>
       </c>
       <c r="E144" t="str">
-        <f>LEFT(F144,18)</f>
+        <f t="shared" si="5"/>
         <v>17-30-400-020-0000</v>
       </c>
       <c r="F144" t="s">
@@ -15946,14 +15959,14 @@
         <v>17304010230000</v>
       </c>
       <c r="C145" s="5" t="b">
-        <f>A145=B145</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D145" t="s">
         <v>123</v>
       </c>
       <c r="E145" t="str">
-        <f>LEFT(F145,18)</f>
+        <f t="shared" si="5"/>
         <v>17-30-401-023-0000</v>
       </c>
       <c r="F145" t="s">
@@ -16034,14 +16047,14 @@
         <v>17311010160000</v>
       </c>
       <c r="C146" s="5" t="b">
-        <f>A146=B146</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D146" t="s">
         <v>126</v>
       </c>
       <c r="E146" t="str">
-        <f>LEFT(F146,18)</f>
+        <f t="shared" si="5"/>
         <v>17-31-101-016-0000</v>
       </c>
       <c r="F146" t="s">
@@ -16122,14 +16135,14 @@
         <v>17313100110000</v>
       </c>
       <c r="C147" s="5" t="b">
-        <f>A147=B147</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D147" t="s">
         <v>63</v>
       </c>
       <c r="E147" t="str">
-        <f>LEFT(F147,18)</f>
+        <f t="shared" si="5"/>
         <v>17-31-310-011-0000</v>
       </c>
       <c r="F147" t="s">
@@ -16213,14 +16226,14 @@
         <v>17314050030000</v>
       </c>
       <c r="C148" s="5" t="b">
-        <f>A148=B148</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D148" t="s">
         <v>129</v>
       </c>
       <c r="E148" t="str">
-        <f>LEFT(F148,18)</f>
+        <f t="shared" si="5"/>
         <v>17-31-405-003-0000</v>
       </c>
       <c r="F148" t="s">
@@ -16301,14 +16314,14 @@
         <v>17322250410000</v>
       </c>
       <c r="C149" s="5" t="b">
-        <f>A149=B149</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D149" t="s">
         <v>434</v>
       </c>
       <c r="E149" t="str">
-        <f>LEFT(F149,18)</f>
+        <f t="shared" si="5"/>
         <v>17-32-225-041-0000</v>
       </c>
       <c r="F149" t="s">
@@ -16392,14 +16405,14 @@
         <v>17324210070000</v>
       </c>
       <c r="C150" s="5" t="b">
-        <f>A150=B150</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D150" t="s">
         <v>131</v>
       </c>
       <c r="E150" t="str">
-        <f>LEFT(F150,18)</f>
+        <f t="shared" si="5"/>
         <v>17-32-421-007-0000</v>
       </c>
       <c r="F150" t="s">
@@ -16480,14 +16493,14 @@
         <v>18013220090000</v>
       </c>
       <c r="C151" s="5" t="b">
-        <f>A151=B151</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D151" t="s">
         <v>717</v>
       </c>
       <c r="E151" t="str">
-        <f>LEFT(F151,18)</f>
+        <f t="shared" si="5"/>
         <v>18-01-322-009-0000</v>
       </c>
       <c r="F151" t="s">
@@ -16559,14 +16572,14 @@
         <v>18042000170000</v>
       </c>
       <c r="C152" s="5" t="b">
-        <f>A152=B152</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D152" t="s">
         <v>875</v>
       </c>
       <c r="E152" t="str">
-        <f>LEFT(F152,18)</f>
+        <f t="shared" si="5"/>
         <v>18-04-200-017-0000</v>
       </c>
       <c r="F152" t="s">
@@ -16638,14 +16651,14 @@
         <v>18094160340000</v>
       </c>
       <c r="C153" s="5" t="b">
-        <f>A153=B153</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D153" t="s">
         <v>720</v>
       </c>
       <c r="E153" t="str">
-        <f>LEFT(F153,18)</f>
+        <f t="shared" si="5"/>
         <v>18-09-416-034-0000</v>
       </c>
       <c r="F153" t="s">
@@ -16717,14 +16730,14 @@
         <v>18094170010000</v>
       </c>
       <c r="C154" s="5" t="b">
-        <f>A154=B154</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D154" t="s">
         <v>723</v>
       </c>
       <c r="E154" t="str">
-        <f>LEFT(F154,18)</f>
+        <f t="shared" si="5"/>
         <v>18-09-417-001-0000</v>
       </c>
       <c r="F154" t="s">
@@ -16796,14 +16809,14 @@
         <v>18094180040000</v>
       </c>
       <c r="C155" s="5" t="b">
-        <f>A155=B155</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D155" t="s">
         <v>846</v>
       </c>
       <c r="E155" t="str">
-        <f>LEFT(F155,18)</f>
+        <f t="shared" si="5"/>
         <v>18-09-418-004-0000</v>
       </c>
       <c r="F155" t="s">
@@ -16875,14 +16888,14 @@
         <v>18102000230000</v>
       </c>
       <c r="C156" s="5" t="b">
-        <f>A156=B156</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D156" t="s">
         <v>726</v>
       </c>
       <c r="E156" t="str">
-        <f>LEFT(F156,18)</f>
+        <f t="shared" si="5"/>
         <v>18-10-200-023-0000</v>
       </c>
       <c r="F156" t="s">
@@ -16954,14 +16967,14 @@
         <v>18102030050000</v>
       </c>
       <c r="C157" s="5" t="b">
-        <f>A157=B157</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D157" t="s">
         <v>729</v>
       </c>
       <c r="E157" t="str">
-        <f>LEFT(F157,18)</f>
+        <f t="shared" si="5"/>
         <v>18-10-203-005-0000</v>
       </c>
       <c r="F157" t="s">
@@ -17033,14 +17046,14 @@
         <v>18103000170000</v>
       </c>
       <c r="C158" s="5" t="b">
-        <f>A158=B158</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D158" t="s">
         <v>732</v>
       </c>
       <c r="E158" t="str">
-        <f>LEFT(F158,18)</f>
+        <f t="shared" si="5"/>
         <v>18-10-300-017-0000</v>
       </c>
       <c r="F158" t="s">
@@ -17112,14 +17125,14 @@
         <v>18132070190000</v>
       </c>
       <c r="C159" s="5" t="b">
-        <f>A159=B159</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D159" t="s">
         <v>902</v>
       </c>
       <c r="E159" t="str">
-        <f>LEFT(F159,18)</f>
+        <f t="shared" si="5"/>
         <v>18-13-207-019-0000</v>
       </c>
       <c r="F159" t="s">
@@ -17194,14 +17207,14 @@
         <v>18193000260000</v>
       </c>
       <c r="C160" s="5" t="b">
-        <f>A160=B160</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D160" t="s">
         <v>735</v>
       </c>
       <c r="E160" t="str">
-        <f>LEFT(F160,18)</f>
+        <f t="shared" si="5"/>
         <v>18-19-300-026-0000</v>
       </c>
       <c r="F160" t="s">
@@ -17273,14 +17286,14 @@
         <v>18222000110000</v>
       </c>
       <c r="C161" s="5" t="b">
-        <f>A161=B161</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D161" t="s">
         <v>696</v>
       </c>
       <c r="E161" t="str">
-        <f>LEFT(F161,18)</f>
+        <f t="shared" si="5"/>
         <v>18-22-200-011-0000</v>
       </c>
       <c r="F161" t="s">
@@ -17352,14 +17365,14 @@
         <v>18233020070000</v>
       </c>
       <c r="C162" s="5" t="b">
-        <f>A162=B162</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D162" t="s">
         <v>738</v>
       </c>
       <c r="E162" t="str">
-        <f>LEFT(F162,18)</f>
+        <f t="shared" si="5"/>
         <v>18-23-302-007-0000</v>
       </c>
       <c r="F162" t="s">
@@ -17431,14 +17444,14 @@
         <v>18282000220000</v>
       </c>
       <c r="C163" s="5" t="b">
-        <f>A163=B163</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D163" t="s">
         <v>741</v>
       </c>
       <c r="E163" t="str">
-        <f>LEFT(F163,18)</f>
+        <f t="shared" si="5"/>
         <v>18-28-200-022-0000</v>
       </c>
       <c r="F163" t="s">
@@ -17510,14 +17523,14 @@
         <v>18283000680000</v>
       </c>
       <c r="C164" s="5" t="b">
-        <f>A164=B164</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D164" t="s">
         <v>744</v>
       </c>
       <c r="E164" t="str">
-        <f>LEFT(F164,18)</f>
+        <f t="shared" si="5"/>
         <v>18-28-300-068-0000</v>
       </c>
       <c r="F164" t="s">
@@ -17589,14 +17602,14 @@
         <v>19023010030000</v>
       </c>
       <c r="C165" s="5" t="b">
-        <f>A165=B165</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D165" t="s">
         <v>331</v>
       </c>
       <c r="E165" t="str">
-        <f>LEFT(F165,18)</f>
+        <f t="shared" si="5"/>
         <v>19-02-301-003-0000</v>
       </c>
       <c r="F165" t="s">
@@ -17674,14 +17687,14 @@
         <v>19023010080000</v>
       </c>
       <c r="C166" s="5" t="b">
-        <f>A166=B166</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D166" t="s">
         <v>369</v>
       </c>
       <c r="E166" t="str">
-        <f>LEFT(F166,18)</f>
+        <f t="shared" si="5"/>
         <v>19-02-301-008-0000</v>
       </c>
       <c r="F166" t="s">
@@ -17759,14 +17772,14 @@
         <v>19023030360000</v>
       </c>
       <c r="C167" s="5" t="b">
-        <f>A167=B167</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D167" t="s">
         <v>367</v>
       </c>
       <c r="E167" t="str">
-        <f>LEFT(F167,18)</f>
+        <f t="shared" si="5"/>
         <v>19-02-303-036-0000</v>
       </c>
       <c r="F167" t="s">
@@ -17844,14 +17857,14 @@
         <v>19023140050000</v>
       </c>
       <c r="C168" s="5" t="b">
-        <f>A168=B168</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D168" t="s">
         <v>378</v>
       </c>
       <c r="E168" t="str">
-        <f>LEFT(F168,18)</f>
+        <f t="shared" si="5"/>
         <v>19-02-314-005-0000</v>
       </c>
       <c r="F168" t="s">
@@ -17929,14 +17942,14 @@
         <v>19032000310000</v>
       </c>
       <c r="C169" s="5" t="b">
-        <f>A169=B169</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D169" t="s">
         <v>336</v>
       </c>
       <c r="E169" t="str">
-        <f>LEFT(F169,18)</f>
+        <f t="shared" si="5"/>
         <v>19-03-200-031-0000</v>
       </c>
       <c r="F169" t="s">
@@ -18014,14 +18027,14 @@
         <v>19032000320000</v>
       </c>
       <c r="C170" s="5" t="b">
-        <f>A170=B170</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D170" t="s">
         <v>350</v>
       </c>
       <c r="E170" t="str">
-        <f>LEFT(F170,18)</f>
+        <f t="shared" si="5"/>
         <v>19-03-200-032-0000</v>
       </c>
       <c r="F170" t="s">
@@ -18099,14 +18112,14 @@
         <v>19032010180000</v>
       </c>
       <c r="C171" s="5" t="b">
-        <f>A171=B171</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D171" t="s">
         <v>345</v>
       </c>
       <c r="E171" t="str">
-        <f>LEFT(F171,18)</f>
+        <f t="shared" si="5"/>
         <v>19-03-201-018-0000</v>
       </c>
       <c r="F171" t="s">
@@ -18184,14 +18197,14 @@
         <v>19032010190000</v>
       </c>
       <c r="C172" s="5" t="b">
-        <f>A172=B172</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D172" t="s">
         <v>356</v>
       </c>
       <c r="E172" t="str">
-        <f>LEFT(F172,18)</f>
+        <f t="shared" si="5"/>
         <v>19-03-201-019-0000</v>
       </c>
       <c r="F172" t="s">
@@ -18269,14 +18282,14 @@
         <v>19032010440000</v>
       </c>
       <c r="C173" s="5" t="b">
-        <f>A173=B173</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D173" t="s">
         <v>354</v>
       </c>
       <c r="E173" t="str">
-        <f>LEFT(F173,18)</f>
+        <f t="shared" si="5"/>
         <v>19-03-201-044-0000</v>
       </c>
       <c r="F173" t="s">
@@ -18354,14 +18367,14 @@
         <v>19034002160000</v>
       </c>
       <c r="C174" s="5" t="b">
-        <f>A174=B174</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D174" t="s">
         <v>386</v>
       </c>
       <c r="E174" t="str">
-        <f>LEFT(F174,18)</f>
+        <f t="shared" si="5"/>
         <v>19-03-400-216-0000</v>
       </c>
       <c r="F174" t="s">
@@ -18439,14 +18452,14 @@
         <v>19072010160000</v>
       </c>
       <c r="C175" s="5" t="b">
-        <f>A175=B175</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D175" t="s">
         <v>786</v>
       </c>
       <c r="E175" t="str">
-        <f>LEFT(F175,18)</f>
+        <f t="shared" si="5"/>
         <v>19-07-201-016-0000</v>
       </c>
       <c r="F175" t="s">
@@ -18521,14 +18534,14 @@
         <v>19082020030000</v>
       </c>
       <c r="C176" s="5" t="b">
-        <f>A176=B176</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D176" t="s">
         <v>864</v>
       </c>
       <c r="E176" t="str">
-        <f>LEFT(F176,18)</f>
+        <f t="shared" si="5"/>
         <v>19-08-202-003-0000</v>
       </c>
       <c r="F176" t="s">
@@ -18603,14 +18616,14 @@
         <v>19082030260000</v>
       </c>
       <c r="C177" s="5" t="b">
-        <f>A177=B177</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D177" t="s">
         <v>807</v>
       </c>
       <c r="E177" t="str">
-        <f>LEFT(F177,18)</f>
+        <f t="shared" si="5"/>
         <v>19-08-203-026-0000</v>
       </c>
       <c r="F177" t="s">
@@ -18682,14 +18695,14 @@
         <v>19112020120000</v>
       </c>
       <c r="C178" s="5" t="b">
-        <f>A178=B178</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D178" t="s">
         <v>357</v>
       </c>
       <c r="E178" t="str">
-        <f>LEFT(F178,18)</f>
+        <f t="shared" si="5"/>
         <v>19-11-202-012-0000</v>
       </c>
       <c r="F178" t="s">
@@ -18767,14 +18780,14 @@
         <v>19112020190000</v>
       </c>
       <c r="C179" s="5" t="b">
-        <f>A179=B179</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D179" t="s">
         <v>395</v>
       </c>
       <c r="E179" t="str">
-        <f>LEFT(F179,18)</f>
+        <f t="shared" si="5"/>
         <v>19-11-202-019-0000</v>
       </c>
       <c r="F179" t="s">
@@ -18852,14 +18865,14 @@
         <v>19112020230000</v>
       </c>
       <c r="C180" s="5" t="b">
-        <f>A180=B180</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D180" t="s">
         <v>398</v>
       </c>
       <c r="E180" t="str">
-        <f>LEFT(F180,18)</f>
+        <f t="shared" si="5"/>
         <v>19-11-202-023-0000</v>
       </c>
       <c r="F180" t="s">
@@ -18937,14 +18950,14 @@
         <v>19114000110000</v>
       </c>
       <c r="C181" s="5" t="b">
-        <f>A181=B181</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D181" t="s">
         <v>279</v>
       </c>
       <c r="E181" t="str">
-        <f>LEFT(F181,18)</f>
+        <f t="shared" si="5"/>
         <v>19-11-400-011-0000</v>
       </c>
       <c r="F181" t="s">
@@ -19022,14 +19035,14 @@
         <v>19121010590000</v>
       </c>
       <c r="C182" s="5" t="b">
-        <f>A182=B182</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D182" t="s">
         <v>338</v>
       </c>
       <c r="E182" t="str">
-        <f>LEFT(F182,18)</f>
+        <f t="shared" si="5"/>
         <v>19-12-101-059-0000</v>
       </c>
       <c r="F182" t="s">
@@ -19107,14 +19120,14 @@
         <v>19183030070000</v>
       </c>
       <c r="C183" s="5" t="b">
-        <f>A183=B183</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D183" t="s">
         <v>334</v>
       </c>
       <c r="E183" t="str">
-        <f>LEFT(F183,18)</f>
+        <f t="shared" si="5"/>
         <v>19-18-303-007-0000</v>
       </c>
       <c r="F183" t="s">
@@ -19192,14 +19205,14 @@
         <v>19191160320000</v>
       </c>
       <c r="C184" s="5" t="b">
-        <f>A184=B184</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D184" t="s">
         <v>850</v>
       </c>
       <c r="E184" t="str">
-        <f>LEFT(F184,18)</f>
+        <f t="shared" si="5"/>
         <v>19-19-116-032-0000</v>
       </c>
       <c r="F184" t="s">
@@ -19271,14 +19284,14 @@
         <v>19191160380000</v>
       </c>
       <c r="C185" s="5" t="b">
-        <f>A185=B185</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D185" t="s">
         <v>795</v>
       </c>
       <c r="E185" t="str">
-        <f>LEFT(F185,18)</f>
+        <f t="shared" si="5"/>
         <v>19-19-116-038-0000</v>
       </c>
       <c r="F185" t="s">
@@ -19350,14 +19363,14 @@
         <v>19191160560000</v>
       </c>
       <c r="C186" s="5" t="b">
-        <f>A186=B186</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D186" t="s">
         <v>792</v>
       </c>
       <c r="E186" t="str">
-        <f>LEFT(F186,18)</f>
+        <f t="shared" si="5"/>
         <v>19-19-116-056-0000</v>
       </c>
       <c r="F186" t="s">
@@ -19429,14 +19442,14 @@
         <v>19191160600000</v>
       </c>
       <c r="C187" s="5" t="b">
-        <f>A187=B187</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D187" t="s">
         <v>881</v>
       </c>
       <c r="E187" t="str">
-        <f>LEFT(F187,18)</f>
+        <f t="shared" si="5"/>
         <v>19-19-116-060-0000</v>
       </c>
       <c r="F187" t="s">
@@ -19508,14 +19521,14 @@
         <v>19191170130000</v>
       </c>
       <c r="C188" s="5" t="b">
-        <f>A188=B188</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D188" t="s">
         <v>801</v>
       </c>
       <c r="E188" t="str">
-        <f>LEFT(F188,18)</f>
+        <f t="shared" si="5"/>
         <v>19-19-117-013-0000</v>
       </c>
       <c r="F188" t="s">
@@ -19587,14 +19600,14 @@
         <v>19192160160000</v>
       </c>
       <c r="C189" s="5" t="b">
-        <f>A189=B189</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D189" t="s">
         <v>884</v>
       </c>
       <c r="E189" t="str">
-        <f>LEFT(F189,18)</f>
+        <f t="shared" si="5"/>
         <v>19-19-216-016-0000</v>
       </c>
       <c r="F189" t="s">
@@ -19666,14 +19679,14 @@
         <v>19193010070000</v>
       </c>
       <c r="C190" s="5" t="b">
-        <f>A190=B190</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D190" t="s">
         <v>798</v>
       </c>
       <c r="E190" t="str">
-        <f>LEFT(F190,18)</f>
+        <f t="shared" si="5"/>
         <v>19-19-301-007-0000</v>
       </c>
       <c r="F190" t="s">
@@ -19745,14 +19758,14 @@
         <v>19253040020000</v>
       </c>
       <c r="C191" s="5" t="b">
-        <f>A191=B191</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D191" t="s">
         <v>324</v>
       </c>
       <c r="E191" t="str">
-        <f>LEFT(F191,18)</f>
+        <f t="shared" si="5"/>
         <v>19-25-304-002-0000</v>
       </c>
       <c r="F191" t="s">
@@ -19830,14 +19843,14 @@
         <v>19253100090000</v>
       </c>
       <c r="C192" s="5" t="b">
-        <f>A192=B192</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D192" t="s">
         <v>381</v>
       </c>
       <c r="E192" t="str">
-        <f>LEFT(F192,18)</f>
+        <f t="shared" si="5"/>
         <v>19-25-310-009-0000</v>
       </c>
       <c r="F192" t="s">
@@ -19907,7 +19920,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="193" spans="1:74" x14ac:dyDescent="0.8">
+    <row r="193" spans="1:67" x14ac:dyDescent="0.8">
       <c r="A193" s="4">
         <v>19281010300000</v>
       </c>
@@ -19915,14 +19928,14 @@
         <v>19281010300000</v>
       </c>
       <c r="C193" s="5" t="b">
-        <f>A193=B193</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D193" t="s">
         <v>789</v>
       </c>
       <c r="E193" t="str">
-        <f>LEFT(F193,18)</f>
+        <f t="shared" si="5"/>
         <v>19-28-101-030-0000</v>
       </c>
       <c r="F193" t="s">
@@ -19986,7 +19999,7 @@
         <v>36098</v>
       </c>
     </row>
-    <row r="194" spans="1:74" x14ac:dyDescent="0.8">
+    <row r="194" spans="1:67" x14ac:dyDescent="0.8">
       <c r="A194" s="4">
         <v>19282000330000</v>
       </c>
@@ -19994,14 +20007,14 @@
         <v>19282000330000</v>
       </c>
       <c r="C194" s="5" t="b">
-        <f>A194=B194</f>
+        <f t="shared" ref="C194:C257" si="6">A194=B194</f>
         <v>1</v>
       </c>
       <c r="D194" t="s">
         <v>781</v>
       </c>
       <c r="E194" t="str">
-        <f>LEFT(F194,18)</f>
+        <f t="shared" ref="E194:E257" si="7">LEFT(F194,18)</f>
         <v>19-28-200-033-0000</v>
       </c>
       <c r="F194" t="s">
@@ -20065,7 +20078,7 @@
         <v>36020</v>
       </c>
     </row>
-    <row r="195" spans="1:74" x14ac:dyDescent="0.8">
+    <row r="195" spans="1:67" x14ac:dyDescent="0.8">
       <c r="A195" s="4">
         <v>19291000380000</v>
       </c>
@@ -20073,14 +20086,14 @@
         <v>19291000380000</v>
       </c>
       <c r="C195" s="5" t="b">
-        <f>A195=B195</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D195" t="s">
         <v>804</v>
       </c>
       <c r="E195" t="str">
-        <f>LEFT(F195,18)</f>
+        <f t="shared" si="7"/>
         <v>19-29-100-038-0000</v>
       </c>
       <c r="F195" t="s">
@@ -20144,7 +20157,7 @@
         <v>36019</v>
       </c>
     </row>
-    <row r="196" spans="1:74" x14ac:dyDescent="0.8">
+    <row r="196" spans="1:67" x14ac:dyDescent="0.8">
       <c r="A196" s="4">
         <v>19291000550000</v>
       </c>
@@ -20152,14 +20165,14 @@
         <v>19291000550000</v>
       </c>
       <c r="C196" s="5" t="b">
-        <f>A196=B196</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D196" t="s">
         <v>810</v>
       </c>
       <c r="E196" t="str">
-        <f>LEFT(F196,18)</f>
+        <f t="shared" si="7"/>
         <v>19-29-100-055-0000</v>
       </c>
       <c r="F196" t="s">
@@ -20222,17 +20235,8 @@
       <c r="BO196">
         <v>36019</v>
       </c>
-      <c r="BS196">
-        <v>315835.13775299903</v>
-      </c>
-      <c r="BU196">
-        <v>0.05</v>
-      </c>
-      <c r="BV196">
-        <v>1960</v>
-      </c>
-    </row>
-    <row r="197" spans="1:74" x14ac:dyDescent="0.8">
+    </row>
+    <row r="197" spans="1:67" x14ac:dyDescent="0.8">
       <c r="A197" s="4">
         <v>19291000690000</v>
       </c>
@@ -20240,14 +20244,14 @@
         <v>19291000690000</v>
       </c>
       <c r="C197" s="5" t="b">
-        <f>A197=B197</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D197" t="s">
         <v>878</v>
       </c>
       <c r="E197" t="str">
-        <f>LEFT(F197,18)</f>
+        <f t="shared" si="7"/>
         <v>19-29-100-069-0000</v>
       </c>
       <c r="F197" t="s">
@@ -20310,17 +20314,8 @@
       <c r="BO197">
         <v>36019</v>
       </c>
-      <c r="BS197">
-        <v>492105.61245868698</v>
-      </c>
-      <c r="BU197">
-        <v>0.05</v>
-      </c>
-      <c r="BV197">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="198" spans="1:74" x14ac:dyDescent="0.8">
+    </row>
+    <row r="198" spans="1:67" x14ac:dyDescent="0.8">
       <c r="A198" s="4">
         <v>20051020330000</v>
       </c>
@@ -20328,14 +20323,14 @@
         <v>20051020330000</v>
       </c>
       <c r="C198" s="5" t="b">
-        <f>A198=B198</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D198" t="s">
         <v>340</v>
       </c>
       <c r="E198" t="str">
-        <f>LEFT(F198,18)</f>
+        <f t="shared" si="7"/>
         <v>20-05-102-033-0000</v>
       </c>
       <c r="F198" t="s">
@@ -20404,17 +20399,8 @@
       <c r="BN198">
         <v>1984</v>
       </c>
-      <c r="BS198">
-        <v>204769.786514999</v>
-      </c>
-      <c r="BU198">
-        <v>0.05</v>
-      </c>
-      <c r="BV198">
-        <v>1978</v>
-      </c>
-    </row>
-    <row r="199" spans="1:74" x14ac:dyDescent="0.8">
+    </row>
+    <row r="199" spans="1:67" x14ac:dyDescent="0.8">
       <c r="A199" s="4">
         <v>20051100100000</v>
       </c>
@@ -20422,14 +20408,14 @@
         <v>20051100100000</v>
       </c>
       <c r="C199" s="5" t="b">
-        <f>A199=B199</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D199" t="s">
         <v>365</v>
       </c>
       <c r="E199" t="str">
-        <f>LEFT(F199,18)</f>
+        <f t="shared" si="7"/>
         <v>20-05-110-010-0000</v>
       </c>
       <c r="F199" t="s">
@@ -20498,17 +20484,8 @@
       <c r="BN199">
         <v>2014</v>
       </c>
-      <c r="BS199">
-        <v>143894.90114999999</v>
-      </c>
-      <c r="BU199">
-        <v>0.05</v>
-      </c>
-      <c r="BV199">
-        <v>1992</v>
-      </c>
-    </row>
-    <row r="200" spans="1:74" x14ac:dyDescent="0.8">
+    </row>
+    <row r="200" spans="1:67" x14ac:dyDescent="0.8">
       <c r="A200" s="4">
         <v>20051110170000</v>
       </c>
@@ -20516,14 +20493,14 @@
         <v>20051110170000</v>
       </c>
       <c r="C200" s="5" t="b">
-        <f>A200=B200</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D200" t="s">
         <v>320</v>
       </c>
       <c r="E200" t="str">
-        <f>LEFT(F200,18)</f>
+        <f t="shared" si="7"/>
         <v>20-05-111-017-0000</v>
       </c>
       <c r="F200" t="s">
@@ -20592,17 +20569,8 @@
       <c r="BN200">
         <v>1963</v>
       </c>
-      <c r="BS200">
-        <v>49361.061874999999</v>
-      </c>
-      <c r="BU200">
-        <v>0.05</v>
-      </c>
-      <c r="BV200">
-        <v>1967</v>
-      </c>
-    </row>
-    <row r="201" spans="1:74" x14ac:dyDescent="0.8">
+    </row>
+    <row r="201" spans="1:67" x14ac:dyDescent="0.8">
       <c r="A201" s="4">
         <v>20052000330000</v>
       </c>
@@ -20610,14 +20578,14 @@
         <v>20052000330000</v>
       </c>
       <c r="C201" s="5" t="b">
-        <f>A201=B201</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D201" t="s">
         <v>376</v>
       </c>
       <c r="E201" t="str">
-        <f>LEFT(F201,18)</f>
+        <f t="shared" si="7"/>
         <v>20-05-200-033-0000</v>
       </c>
       <c r="F201" t="s">
@@ -20686,17 +20654,8 @@
       <c r="BN201">
         <v>1973</v>
       </c>
-      <c r="BS201">
-        <v>54837.466397999997</v>
-      </c>
-      <c r="BU201">
-        <v>0.05</v>
-      </c>
-      <c r="BV201">
-        <v>1979</v>
-      </c>
-    </row>
-    <row r="202" spans="1:74" x14ac:dyDescent="0.8">
+    </row>
+    <row r="202" spans="1:67" x14ac:dyDescent="0.8">
       <c r="A202" s="4">
         <v>20052000390000</v>
       </c>
@@ -20704,14 +20663,14 @@
         <v>20052000390000</v>
       </c>
       <c r="C202" s="5" t="b">
-        <f>A202=B202</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D202" t="s">
         <v>363</v>
       </c>
       <c r="E202" t="str">
-        <f>LEFT(F202,18)</f>
+        <f t="shared" si="7"/>
         <v>20-05-200-039-0000</v>
       </c>
       <c r="F202" t="s">
@@ -20780,17 +20739,8 @@
       <c r="BN202">
         <v>1974</v>
       </c>
-      <c r="BS202">
-        <v>267278.640263999</v>
-      </c>
-      <c r="BU202">
-        <v>0.05</v>
-      </c>
-      <c r="BV202">
-        <v>1966</v>
-      </c>
-    </row>
-    <row r="203" spans="1:74" x14ac:dyDescent="0.8">
+    </row>
+    <row r="203" spans="1:67" x14ac:dyDescent="0.8">
       <c r="A203" s="4">
         <v>20052001610000</v>
       </c>
@@ -20798,14 +20748,14 @@
         <v>20052001610000</v>
       </c>
       <c r="C203" s="5" t="b">
-        <f>A203=B203</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D203" t="s">
         <v>360</v>
       </c>
       <c r="E203" t="str">
-        <f>LEFT(F203,18)</f>
+        <f t="shared" si="7"/>
         <v>20-05-200-161-0000</v>
       </c>
       <c r="F203" t="s">
@@ -20874,17 +20824,8 @@
       <c r="BN203">
         <v>2014</v>
       </c>
-      <c r="BS203">
-        <v>112465.027164</v>
-      </c>
-      <c r="BU203">
-        <v>0.05</v>
-      </c>
-      <c r="BV203">
-        <v>1973</v>
-      </c>
-    </row>
-    <row r="204" spans="1:74" x14ac:dyDescent="0.8">
+    </row>
+    <row r="204" spans="1:67" x14ac:dyDescent="0.8">
       <c r="A204" s="4">
         <v>20053000200000</v>
       </c>
@@ -20892,14 +20833,14 @@
         <v>20053000200000</v>
       </c>
       <c r="C204" s="5" t="b">
-        <f>A204=B204</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D204" t="s">
         <v>303</v>
       </c>
       <c r="E204" t="str">
-        <f>LEFT(F204,18)</f>
+        <f t="shared" si="7"/>
         <v>20-05-300-020-0000</v>
       </c>
       <c r="F204" t="s">
@@ -20968,17 +20909,8 @@
       <c r="BN204">
         <v>1920</v>
       </c>
-      <c r="BS204">
-        <v>417102.82380000001</v>
-      </c>
-      <c r="BU204">
-        <v>0.05</v>
-      </c>
-      <c r="BV204">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="205" spans="1:74" x14ac:dyDescent="0.8">
+    </row>
+    <row r="205" spans="1:67" x14ac:dyDescent="0.8">
       <c r="A205" s="4">
         <v>20053020090000</v>
       </c>
@@ -20986,14 +20918,14 @@
         <v>20053020090000</v>
       </c>
       <c r="C205" s="5" t="b">
-        <f>A205=B205</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D205" t="s">
         <v>343</v>
       </c>
       <c r="E205" t="str">
-        <f>LEFT(F205,18)</f>
+        <f t="shared" si="7"/>
         <v>20-05-302-009-0000</v>
       </c>
       <c r="F205" t="s">
@@ -21062,17 +20994,8 @@
       <c r="BN205">
         <v>1999</v>
       </c>
-      <c r="BS205">
-        <v>926577.62190675002</v>
-      </c>
-      <c r="BU205">
-        <v>0.05</v>
-      </c>
-      <c r="BV205">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="206" spans="1:74" x14ac:dyDescent="0.8">
+    </row>
+    <row r="206" spans="1:67" x14ac:dyDescent="0.8">
       <c r="A206" s="4">
         <v>20053020100000</v>
       </c>
@@ -21080,14 +21003,14 @@
         <v>20053020100000</v>
       </c>
       <c r="C206" s="5" t="b">
-        <f>A206=B206</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D206" t="s">
         <v>371</v>
       </c>
       <c r="E206" t="str">
-        <f>LEFT(F206,18)</f>
+        <f t="shared" si="7"/>
         <v>20-05-302-010-0000</v>
       </c>
       <c r="F206" t="s">
@@ -21156,17 +21079,8 @@
       <c r="BN206">
         <v>1983</v>
       </c>
-      <c r="BS206">
-        <v>765891.61613999901</v>
-      </c>
-      <c r="BU206">
-        <v>0.05</v>
-      </c>
-      <c r="BV206">
-        <v>1999</v>
-      </c>
-    </row>
-    <row r="207" spans="1:74" x14ac:dyDescent="0.8">
+    </row>
+    <row r="207" spans="1:67" x14ac:dyDescent="0.8">
       <c r="A207" s="4">
         <v>20053110060000</v>
       </c>
@@ -21174,14 +21088,14 @@
         <v>20053110060000</v>
       </c>
       <c r="C207" s="5" t="b">
-        <f>A207=B207</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D207" t="s">
         <v>317</v>
       </c>
       <c r="E207" t="str">
-        <f>LEFT(F207,18)</f>
+        <f t="shared" si="7"/>
         <v>20-05-311-006-0000</v>
       </c>
       <c r="F207" t="s">
@@ -21250,17 +21164,8 @@
       <c r="BN207">
         <v>2008</v>
       </c>
-      <c r="BS207">
-        <v>149879.12143749901</v>
-      </c>
-      <c r="BU207">
-        <v>0.05</v>
-      </c>
-      <c r="BV207">
-        <v>1971</v>
-      </c>
-    </row>
-    <row r="208" spans="1:74" x14ac:dyDescent="0.8">
+    </row>
+    <row r="208" spans="1:67" x14ac:dyDescent="0.8">
       <c r="A208" s="4">
         <v>20054000170000</v>
       </c>
@@ -21268,14 +21173,14 @@
         <v>20054000170000</v>
       </c>
       <c r="C208" s="5" t="b">
-        <f>A208=B208</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D208" t="s">
         <v>374</v>
       </c>
       <c r="E208" t="str">
-        <f>LEFT(F208,18)</f>
+        <f t="shared" si="7"/>
         <v>20-05-400-017-0000</v>
       </c>
       <c r="F208" t="s">
@@ -21344,17 +21249,8 @@
       <c r="BN208">
         <v>2014</v>
       </c>
-      <c r="BS208">
-        <v>399388.36636499898</v>
-      </c>
-      <c r="BU208">
-        <v>0.05</v>
-      </c>
-      <c r="BV208">
-        <v>1996</v>
-      </c>
-    </row>
-    <row r="209" spans="1:74" x14ac:dyDescent="0.8">
+    </row>
+    <row r="209" spans="1:67" x14ac:dyDescent="0.8">
       <c r="A209" s="4">
         <v>20061001150000</v>
       </c>
@@ -21362,14 +21258,14 @@
         <v>20061001150000</v>
       </c>
       <c r="C209" s="5" t="b">
-        <f>A209=B209</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D209" t="s">
         <v>352</v>
       </c>
       <c r="E209" t="str">
-        <f>LEFT(F209,18)</f>
+        <f t="shared" si="7"/>
         <v>20-06-100-115-0000</v>
       </c>
       <c r="F209" t="s">
@@ -21438,17 +21334,8 @@
       <c r="BN209">
         <v>2005</v>
       </c>
-      <c r="BS209">
-        <v>271345.75231499999</v>
-      </c>
-      <c r="BU209">
-        <v>0.05</v>
-      </c>
-      <c r="BV209">
-        <v>1981</v>
-      </c>
-    </row>
-    <row r="210" spans="1:74" x14ac:dyDescent="0.8">
+    </row>
+    <row r="210" spans="1:67" x14ac:dyDescent="0.8">
       <c r="A210" s="4">
         <v>20302240160000</v>
       </c>
@@ -21456,14 +21343,14 @@
         <v>20302240160000</v>
       </c>
       <c r="C210" s="5" t="b">
-        <f>A210=B210</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D210" t="s">
         <v>311</v>
       </c>
       <c r="E210" t="str">
-        <f>LEFT(F210,18)</f>
+        <f t="shared" si="7"/>
         <v>20-30-224-016-0000</v>
       </c>
       <c r="F210" t="s">
@@ -21532,17 +21419,8 @@
       <c r="BN210">
         <v>1924</v>
       </c>
-      <c r="BS210">
-        <v>115943.35116000001</v>
-      </c>
-      <c r="BU210">
-        <v>0.05</v>
-      </c>
-      <c r="BV210">
-        <v>1996</v>
-      </c>
-    </row>
-    <row r="211" spans="1:74" x14ac:dyDescent="0.8">
+    </row>
+    <row r="211" spans="1:67" x14ac:dyDescent="0.8">
       <c r="A211" s="4">
         <v>20302240180000</v>
       </c>
@@ -21550,14 +21428,14 @@
         <v>20302240180000</v>
       </c>
       <c r="C211" s="5" t="b">
-        <f>A211=B211</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D211" t="s">
         <v>327</v>
       </c>
       <c r="E211" t="str">
-        <f>LEFT(F211,18)</f>
+        <f t="shared" si="7"/>
         <v>20-30-224-018-0000</v>
       </c>
       <c r="F211" t="s">
@@ -21626,17 +21504,8 @@
       <c r="BN211">
         <v>1974</v>
       </c>
-      <c r="BS211">
-        <v>138709.06315199999</v>
-      </c>
-      <c r="BU211">
-        <v>0.05</v>
-      </c>
-      <c r="BV211">
-        <v>1973</v>
-      </c>
-    </row>
-    <row r="212" spans="1:74" x14ac:dyDescent="0.8">
+    </row>
+    <row r="212" spans="1:67" x14ac:dyDescent="0.8">
       <c r="A212" s="4">
         <v>20303080040000</v>
       </c>
@@ -21644,14 +21513,14 @@
         <v>20303080040000</v>
       </c>
       <c r="C212" s="5" t="b">
-        <f>A212=B212</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D212" t="s">
         <v>329</v>
       </c>
       <c r="E212" t="str">
-        <f>LEFT(F212,18)</f>
+        <f t="shared" si="7"/>
         <v>20-30-308-004-0000</v>
       </c>
       <c r="F212" t="s">
@@ -21720,17 +21589,8 @@
       <c r="BN212">
         <v>1960</v>
       </c>
-      <c r="BS212">
-        <v>57272.622360937399</v>
-      </c>
-      <c r="BU212">
-        <v>0.05</v>
-      </c>
-      <c r="BV212">
-        <v>1978</v>
-      </c>
-    </row>
-    <row r="213" spans="1:74" x14ac:dyDescent="0.8">
+    </row>
+    <row r="213" spans="1:67" x14ac:dyDescent="0.8">
       <c r="A213" s="4">
         <v>20303080090000</v>
       </c>
@@ -21738,14 +21598,14 @@
         <v>20303080090000</v>
       </c>
       <c r="C213" s="5" t="b">
-        <f>A213=B213</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D213" t="s">
         <v>347</v>
       </c>
       <c r="E213" t="str">
-        <f>LEFT(F213,18)</f>
+        <f t="shared" si="7"/>
         <v>20-30-308-009-0000</v>
       </c>
       <c r="F213" t="s">
@@ -21814,17 +21674,8 @@
       <c r="BN213">
         <v>1971</v>
       </c>
-      <c r="BS213">
-        <v>151628.477520938</v>
-      </c>
-      <c r="BU213">
-        <v>0.05</v>
-      </c>
-      <c r="BV213">
-        <v>1967</v>
-      </c>
-    </row>
-    <row r="214" spans="1:74" x14ac:dyDescent="0.8">
+    </row>
+    <row r="214" spans="1:67" x14ac:dyDescent="0.8">
       <c r="A214" s="4">
         <v>23122110190000</v>
       </c>
@@ -21832,14 +21683,14 @@
         <v>23122110190000</v>
       </c>
       <c r="C214" s="5" t="b">
-        <f>A214=B214</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D214" t="s">
         <v>908</v>
       </c>
       <c r="E214" t="str">
-        <f>LEFT(F214,18)</f>
+        <f t="shared" si="7"/>
         <v>23-12-211-019-0000</v>
       </c>
       <c r="F214" t="s">
@@ -21905,17 +21756,8 @@
       <c r="BO214">
         <v>30007</v>
       </c>
-      <c r="BS214">
-        <v>280246.09945556201</v>
-      </c>
-      <c r="BU214">
-        <v>0.05</v>
-      </c>
-      <c r="BV214">
-        <v>1967</v>
-      </c>
-    </row>
-    <row r="215" spans="1:74" x14ac:dyDescent="0.8">
+    </row>
+    <row r="215" spans="1:67" x14ac:dyDescent="0.8">
       <c r="A215" s="4">
         <v>24014030160000</v>
       </c>
@@ -21923,14 +21765,14 @@
         <v>24014030160000</v>
       </c>
       <c r="C215" s="5" t="b">
-        <f>A215=B215</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D215" t="s">
         <v>931</v>
       </c>
       <c r="E215" t="str">
-        <f>LEFT(F215,18)</f>
+        <f t="shared" si="7"/>
         <v>24-01-403-016-0000</v>
       </c>
       <c r="F215" t="s">
@@ -21996,17 +21838,8 @@
       <c r="BO215">
         <v>39018</v>
       </c>
-      <c r="BS215">
-        <v>229969.38512624899</v>
-      </c>
-      <c r="BU215">
-        <v>0.05</v>
-      </c>
-      <c r="BV215">
-        <v>1950</v>
-      </c>
-    </row>
-    <row r="216" spans="1:74" x14ac:dyDescent="0.8">
+    </row>
+    <row r="216" spans="1:67" x14ac:dyDescent="0.8">
       <c r="A216" s="4">
         <v>24074000260000</v>
       </c>
@@ -22014,14 +21847,14 @@
         <v>24074000260000</v>
       </c>
       <c r="C216" s="5" t="b">
-        <f>A216=B216</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D216" t="s">
         <v>934</v>
       </c>
       <c r="E216" t="str">
-        <f>LEFT(F216,18)</f>
+        <f t="shared" si="7"/>
         <v>24-07-400-026-0000</v>
       </c>
       <c r="F216" t="s">
@@ -22087,17 +21920,8 @@
       <c r="BO216">
         <v>39164</v>
       </c>
-      <c r="BS216">
-        <v>100592.035464</v>
-      </c>
-      <c r="BU216">
-        <v>0.05</v>
-      </c>
-      <c r="BV216">
-        <v>1955</v>
-      </c>
-    </row>
-    <row r="217" spans="1:74" x14ac:dyDescent="0.8">
+    </row>
+    <row r="217" spans="1:67" x14ac:dyDescent="0.8">
       <c r="A217" s="4">
         <v>24214050050000</v>
       </c>
@@ -22105,14 +21929,14 @@
         <v>24214050050000</v>
       </c>
       <c r="C217" s="5" t="b">
-        <f>A217=B217</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D217" t="s">
         <v>898</v>
       </c>
       <c r="E217" t="str">
-        <f>LEFT(F217,18)</f>
+        <f t="shared" si="7"/>
         <v>24-21-405-005-0000</v>
       </c>
       <c r="F217" t="s">
@@ -22175,17 +21999,8 @@
       <c r="BO217">
         <v>39037</v>
       </c>
-      <c r="BS217">
-        <v>360750.94666406303</v>
-      </c>
-      <c r="BU217">
-        <v>0.05</v>
-      </c>
-      <c r="BV217">
-        <v>1974</v>
-      </c>
-    </row>
-    <row r="218" spans="1:74" x14ac:dyDescent="0.8">
+    </row>
+    <row r="218" spans="1:67" x14ac:dyDescent="0.8">
       <c r="A218" s="4">
         <v>24214060010000</v>
       </c>
@@ -22193,14 +22008,14 @@
         <v>24214060010000</v>
       </c>
       <c r="C218" s="5" t="b">
-        <f>A218=B218</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D218" t="s">
         <v>832</v>
       </c>
       <c r="E218" t="str">
-        <f>LEFT(F218,18)</f>
+        <f t="shared" si="7"/>
         <v>24-21-406-001-0000</v>
       </c>
       <c r="F218" t="s">
@@ -22263,17 +22078,8 @@
       <c r="BO218">
         <v>39037</v>
       </c>
-      <c r="BS218">
-        <v>288269.74799999897</v>
-      </c>
-      <c r="BU218">
-        <v>0.05</v>
-      </c>
-      <c r="BV218">
-        <v>1968</v>
-      </c>
-    </row>
-    <row r="219" spans="1:74" x14ac:dyDescent="0.8">
+    </row>
+    <row r="219" spans="1:67" x14ac:dyDescent="0.8">
       <c r="A219" s="4">
         <v>24274010110000</v>
       </c>
@@ -22281,14 +22087,14 @@
         <v>24274010110000</v>
       </c>
       <c r="C219" s="5" t="b">
-        <f>A219=B219</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D219" t="s">
         <v>837</v>
       </c>
       <c r="E219" t="str">
-        <f>LEFT(F219,18)</f>
+        <f t="shared" si="7"/>
         <v>24-27-401-011-0000</v>
       </c>
       <c r="F219" t="s">
@@ -22351,17 +22157,8 @@
       <c r="BO219">
         <v>39037</v>
       </c>
-      <c r="BS219">
-        <v>377227.62625274999</v>
-      </c>
-      <c r="BU219">
-        <v>0.05</v>
-      </c>
-      <c r="BV219">
-        <v>1996</v>
-      </c>
-    </row>
-    <row r="220" spans="1:74" x14ac:dyDescent="0.8">
+    </row>
+    <row r="220" spans="1:67" x14ac:dyDescent="0.8">
       <c r="A220" s="4">
         <v>24274080020000</v>
       </c>
@@ -22369,14 +22166,14 @@
         <v>24274080020000</v>
       </c>
       <c r="C220" s="5" t="b">
-        <f>A220=B220</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D220" t="s">
         <v>840</v>
       </c>
       <c r="E220" t="str">
-        <f>LEFT(F220,18)</f>
+        <f t="shared" si="7"/>
         <v>24-27-408-002-0000</v>
       </c>
       <c r="F220" t="s">
@@ -22439,17 +22236,8 @@
       <c r="BO220">
         <v>39037</v>
       </c>
-      <c r="BS220">
-        <v>178480.8</v>
-      </c>
-      <c r="BU220">
-        <v>0.1</v>
-      </c>
-      <c r="BV220">
-        <v>1986</v>
-      </c>
-    </row>
-    <row r="221" spans="1:74" x14ac:dyDescent="0.8">
+    </row>
+    <row r="221" spans="1:67" x14ac:dyDescent="0.8">
       <c r="A221" s="4">
         <v>24281000300000</v>
       </c>
@@ -22457,14 +22245,14 @@
         <v>24281000300000</v>
       </c>
       <c r="C221" s="5" t="b">
-        <f>A221=B221</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D221" t="s">
         <v>843</v>
       </c>
       <c r="E221" t="str">
-        <f>LEFT(F221,18)</f>
+        <f t="shared" si="7"/>
         <v>24-28-100-030-0000</v>
       </c>
       <c r="F221" t="s">
@@ -22527,17 +22315,8 @@
       <c r="BO221">
         <v>39037</v>
       </c>
-      <c r="BS221">
-        <v>1581912.7038445501</v>
-      </c>
-      <c r="BU221">
-        <v>0.03</v>
-      </c>
-      <c r="BV221">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="222" spans="1:74" x14ac:dyDescent="0.8">
+    </row>
+    <row r="222" spans="1:67" x14ac:dyDescent="0.8">
       <c r="A222" s="4">
         <v>25054040060000</v>
       </c>
@@ -22545,14 +22324,14 @@
         <v>25054040060000</v>
       </c>
       <c r="C222" s="5" t="b">
-        <f>A222=B222</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D222" t="s">
         <v>309</v>
       </c>
       <c r="E222" t="str">
-        <f>LEFT(F222,18)</f>
+        <f t="shared" si="7"/>
         <v>25-05-404-006-0000</v>
       </c>
       <c r="F222" t="s">
@@ -22621,17 +22400,8 @@
       <c r="BN222">
         <v>1959</v>
       </c>
-      <c r="BS222">
-        <v>1095263.77073575</v>
-      </c>
-      <c r="BU222">
-        <v>0.03</v>
-      </c>
-      <c r="BV222">
-        <v>1975</v>
-      </c>
-    </row>
-    <row r="223" spans="1:74" x14ac:dyDescent="0.8">
+    </row>
+    <row r="223" spans="1:67" x14ac:dyDescent="0.8">
       <c r="A223" s="4">
         <v>25054040070000</v>
       </c>
@@ -22639,14 +22409,14 @@
         <v>25054040070000</v>
       </c>
       <c r="C223" s="5" t="b">
-        <f>A223=B223</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D223" t="s">
         <v>313</v>
       </c>
       <c r="E223" t="str">
-        <f>LEFT(F223,18)</f>
+        <f t="shared" si="7"/>
         <v>25-05-404-007-0000</v>
       </c>
       <c r="F223" t="s">
@@ -22715,17 +22485,8 @@
       <c r="BN223">
         <v>1997</v>
       </c>
-      <c r="BS223">
-        <v>830620.70322525001</v>
-      </c>
-      <c r="BU223">
-        <v>0.03</v>
-      </c>
-      <c r="BV223">
-        <v>1952</v>
-      </c>
-    </row>
-    <row r="224" spans="1:74" x14ac:dyDescent="0.8">
+    </row>
+    <row r="224" spans="1:67" x14ac:dyDescent="0.8">
       <c r="A224" s="4">
         <v>25054160110000</v>
       </c>
@@ -22733,14 +22494,14 @@
         <v>25054160110000</v>
       </c>
       <c r="C224" s="5" t="b">
-        <f>A224=B224</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D224" t="s">
         <v>315</v>
       </c>
       <c r="E224" t="str">
-        <f>LEFT(F224,18)</f>
+        <f t="shared" si="7"/>
         <v>25-05-416-011-0000</v>
       </c>
       <c r="F224" t="s">
@@ -22809,17 +22570,8 @@
       <c r="BN224">
         <v>1962</v>
       </c>
-      <c r="BS224">
-        <v>148909.99270800001</v>
-      </c>
-      <c r="BU224">
-        <v>0.03</v>
-      </c>
-      <c r="BV224">
-        <v>1972</v>
-      </c>
-    </row>
-    <row r="225" spans="1:74" x14ac:dyDescent="0.8">
+    </row>
+    <row r="225" spans="1:66" x14ac:dyDescent="0.8">
       <c r="A225" s="4">
         <v>25054160120000</v>
       </c>
@@ -22827,14 +22579,14 @@
         <v>25054160120000</v>
       </c>
       <c r="C225" s="5" t="b">
-        <f>A225=B225</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D225" t="s">
         <v>305</v>
       </c>
       <c r="E225" t="str">
-        <f>LEFT(F225,18)</f>
+        <f t="shared" si="7"/>
         <v>25-05-416-012-0000</v>
       </c>
       <c r="F225" t="s">
@@ -22903,17 +22655,8 @@
       <c r="BN225">
         <v>1967</v>
       </c>
-      <c r="BS225">
-        <v>763234.466064648</v>
-      </c>
-      <c r="BU225">
-        <v>0.03</v>
-      </c>
-      <c r="BV225">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="226" spans="1:74" x14ac:dyDescent="0.8">
+    </row>
+    <row r="226" spans="1:66" x14ac:dyDescent="0.8">
       <c r="A226" s="4">
         <v>25113000270000</v>
       </c>
@@ -22921,14 +22664,14 @@
         <v>25113000270000</v>
       </c>
       <c r="C226" s="5" t="b">
-        <f>A226=B226</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D226" t="s">
         <v>277</v>
       </c>
       <c r="E226" t="str">
-        <f>LEFT(F226,18)</f>
+        <f t="shared" si="7"/>
         <v>25-11-300-027-0000</v>
       </c>
       <c r="F226" t="s">
@@ -22997,17 +22740,8 @@
       <c r="BN226">
         <v>1966</v>
       </c>
-      <c r="BS226">
-        <v>187647.994406249</v>
-      </c>
-      <c r="BU226">
-        <v>0.03</v>
-      </c>
-      <c r="BV226">
-        <v>1991</v>
-      </c>
-    </row>
-    <row r="227" spans="1:74" x14ac:dyDescent="0.8">
+    </row>
+    <row r="227" spans="1:66" x14ac:dyDescent="0.8">
       <c r="A227" s="4">
         <v>25141000050000</v>
       </c>
@@ -23015,14 +22749,14 @@
         <v>25141000050000</v>
       </c>
       <c r="C227" s="5" t="b">
-        <f>A227=B227</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D227" t="s">
         <v>389</v>
       </c>
       <c r="E227" t="str">
-        <f>LEFT(F227,18)</f>
+        <f t="shared" si="7"/>
         <v>25-14-100-005-0000</v>
       </c>
       <c r="F227" t="s">
@@ -23091,17 +22825,8 @@
       <c r="BN227">
         <v>2012</v>
       </c>
-      <c r="BS227">
-        <v>636735.63253355899</v>
-      </c>
-      <c r="BU227">
-        <v>0.03</v>
-      </c>
-      <c r="BV227">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="228" spans="1:74" x14ac:dyDescent="0.8">
+    </row>
+    <row r="228" spans="1:66" x14ac:dyDescent="0.8">
       <c r="A228" s="4">
         <v>25143000120000</v>
       </c>
@@ -23109,14 +22834,14 @@
         <v>25143000120000</v>
       </c>
       <c r="C228" s="5" t="b">
-        <f>A228=B228</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D228" t="s">
         <v>262</v>
       </c>
       <c r="E228" t="str">
-        <f>LEFT(F228,18)</f>
+        <f t="shared" si="7"/>
         <v>25-14-300-012-0000</v>
       </c>
       <c r="F228" t="s">
@@ -23185,17 +22910,8 @@
       <c r="BN228">
         <v>1958</v>
       </c>
-      <c r="BS228">
-        <v>245440.17263812499</v>
-      </c>
-      <c r="BU228">
-        <v>0.03</v>
-      </c>
-      <c r="BV228">
-        <v>1972</v>
-      </c>
-    </row>
-    <row r="229" spans="1:74" x14ac:dyDescent="0.8">
+    </row>
+    <row r="229" spans="1:66" x14ac:dyDescent="0.8">
       <c r="A229" s="4">
         <v>25152290040000</v>
       </c>
@@ -23203,14 +22919,14 @@
         <v>25152290040000</v>
       </c>
       <c r="C229" s="5" t="b">
-        <f>A229=B229</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D229" t="s">
         <v>268</v>
       </c>
       <c r="E229" t="str">
-        <f>LEFT(F229,18)</f>
+        <f t="shared" si="7"/>
         <v>25-15-229-004-0000</v>
       </c>
       <c r="F229" t="s">
@@ -23279,17 +22995,8 @@
       <c r="BN229">
         <v>1980</v>
       </c>
-      <c r="BS229">
-        <v>283328.69876618899</v>
-      </c>
-      <c r="BU229">
-        <v>0.03</v>
-      </c>
-      <c r="BV229">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="230" spans="1:74" x14ac:dyDescent="0.8">
+    </row>
+    <row r="230" spans="1:66" x14ac:dyDescent="0.8">
       <c r="A230" s="4">
         <v>25154060470000</v>
       </c>
@@ -23297,14 +23004,14 @@
         <v>25154060470000</v>
       </c>
       <c r="C230" s="5" t="b">
-        <f>A230=B230</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D230" t="s">
         <v>297</v>
       </c>
       <c r="E230" t="str">
-        <f>LEFT(F230,18)</f>
+        <f t="shared" si="7"/>
         <v>25-15-406-047-0000</v>
       </c>
       <c r="F230" t="s">
@@ -23373,17 +23080,8 @@
       <c r="BN230">
         <v>1952</v>
       </c>
-      <c r="BS230">
-        <v>209751.59489624901</v>
-      </c>
-      <c r="BU230">
-        <v>0.03</v>
-      </c>
-      <c r="BV230">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="231" spans="1:74" x14ac:dyDescent="0.8">
+    </row>
+    <row r="231" spans="1:66" x14ac:dyDescent="0.8">
       <c r="A231" s="4">
         <v>25164290260000</v>
       </c>
@@ -23391,14 +23089,14 @@
         <v>25164290260000</v>
       </c>
       <c r="C231" s="5" t="b">
-        <f>A231=B231</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D231" t="s">
         <v>513</v>
       </c>
       <c r="E231" t="str">
-        <f>LEFT(F231,18)</f>
+        <f t="shared" si="7"/>
         <v>25-16-429-026-0000</v>
       </c>
       <c r="F231" t="s">
@@ -23470,17 +23168,8 @@
       <c r="BN231">
         <v>2012</v>
       </c>
-      <c r="BS231">
-        <v>422146.04574599903</v>
-      </c>
-      <c r="BU231">
-        <v>0.04</v>
-      </c>
-      <c r="BV231">
-        <v>1965</v>
-      </c>
-    </row>
-    <row r="232" spans="1:74" x14ac:dyDescent="0.8">
+    </row>
+    <row r="232" spans="1:66" x14ac:dyDescent="0.8">
       <c r="A232" s="4">
         <v>25183040560000</v>
       </c>
@@ -23488,14 +23177,14 @@
         <v>25183040560000</v>
       </c>
       <c r="C232" s="5" t="b">
-        <f>A232=B232</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D232" t="s">
         <v>509</v>
       </c>
       <c r="E232" t="str">
-        <f>LEFT(F232,18)</f>
+        <f t="shared" si="7"/>
         <v>25-18-304-056-0000</v>
       </c>
       <c r="F232" t="s">
@@ -23564,17 +23253,8 @@
       <c r="BN232">
         <v>1967</v>
       </c>
-      <c r="BS232">
-        <v>171628.53443999999</v>
-      </c>
-      <c r="BU232">
-        <v>0.04</v>
-      </c>
-      <c r="BV232">
-        <v>1998</v>
-      </c>
-    </row>
-    <row r="233" spans="1:74" x14ac:dyDescent="0.8">
+    </row>
+    <row r="233" spans="1:66" x14ac:dyDescent="0.8">
       <c r="A233" s="4">
         <v>25231020090000</v>
       </c>
@@ -23582,14 +23262,14 @@
         <v>25231020090000</v>
       </c>
       <c r="C233" s="5" t="b">
-        <f>A233=B233</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D233" t="s">
         <v>264</v>
       </c>
       <c r="E233" t="str">
-        <f>LEFT(F233,18)</f>
+        <f t="shared" si="7"/>
         <v>25-23-102-009-0000</v>
       </c>
       <c r="F233" t="s">
@@ -23658,17 +23338,8 @@
       <c r="BN233">
         <v>2000</v>
       </c>
-      <c r="BS233">
-        <v>2600691.856776</v>
-      </c>
-      <c r="BU233">
-        <v>0.04</v>
-      </c>
-      <c r="BV233">
-        <v>1960</v>
-      </c>
-    </row>
-    <row r="234" spans="1:74" x14ac:dyDescent="0.8">
+    </row>
+    <row r="234" spans="1:66" x14ac:dyDescent="0.8">
       <c r="A234" s="4">
         <v>25291010260000</v>
       </c>
@@ -23676,14 +23347,14 @@
         <v>25291010260000</v>
       </c>
       <c r="C234" s="5" t="b">
-        <f>A234=B234</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D234" t="s">
         <v>384</v>
       </c>
       <c r="E234" t="str">
-        <f>LEFT(F234,18)</f>
+        <f t="shared" si="7"/>
         <v>25-29-101-026-0000</v>
       </c>
       <c r="F234" t="s">
@@ -23752,17 +23423,8 @@
       <c r="BN234">
         <v>2011</v>
       </c>
-      <c r="BS234">
-        <v>72782.244095999995</v>
-      </c>
-      <c r="BU234">
-        <v>0.04</v>
-      </c>
-      <c r="BV234">
-        <v>1962</v>
-      </c>
-    </row>
-    <row r="235" spans="1:74" x14ac:dyDescent="0.8">
+    </row>
+    <row r="235" spans="1:66" x14ac:dyDescent="0.8">
       <c r="A235" s="4">
         <v>25293130210000</v>
       </c>
@@ -23770,14 +23432,14 @@
         <v>25293130210000</v>
       </c>
       <c r="C235" s="5" t="b">
-        <f>A235=B235</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D235" t="s">
         <v>657</v>
       </c>
       <c r="E235" t="str">
-        <f>LEFT(F235,18)</f>
+        <f t="shared" si="7"/>
         <v>25-29-313-021-0000</v>
       </c>
       <c r="F235" t="s">
@@ -23849,17 +23511,8 @@
       <c r="BN235">
         <v>1978</v>
       </c>
-      <c r="BS235">
-        <v>72622.799171999999</v>
-      </c>
-      <c r="BU235">
-        <v>0.05</v>
-      </c>
-      <c r="BV235">
-        <v>1986</v>
-      </c>
-    </row>
-    <row r="236" spans="1:74" x14ac:dyDescent="0.8">
+    </row>
+    <row r="236" spans="1:66" x14ac:dyDescent="0.8">
       <c r="A236" s="4">
         <v>25303110010000</v>
       </c>
@@ -23867,14 +23520,14 @@
         <v>25303110010000</v>
       </c>
       <c r="C236" s="5" t="b">
-        <f>A236=B236</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D236" t="s">
         <v>654</v>
       </c>
       <c r="E236" t="str">
-        <f>LEFT(F236,18)</f>
+        <f t="shared" si="7"/>
         <v>25-30-311-001-0000</v>
       </c>
       <c r="F236" t="s">
@@ -23946,17 +23599,8 @@
       <c r="BN236">
         <v>1994</v>
       </c>
-      <c r="BS236">
-        <v>193853.393648</v>
-      </c>
-      <c r="BU236">
-        <v>0.05</v>
-      </c>
-      <c r="BV236">
-        <v>1969</v>
-      </c>
-    </row>
-    <row r="237" spans="1:74" x14ac:dyDescent="0.8">
+    </row>
+    <row r="237" spans="1:66" x14ac:dyDescent="0.8">
       <c r="A237" s="4">
         <v>25312040280000</v>
       </c>
@@ -23964,14 +23608,14 @@
         <v>25312040270000</v>
       </c>
       <c r="C237" s="5" t="b">
-        <f>A237=B237</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="D237" t="s">
         <v>649</v>
       </c>
       <c r="E237" t="str">
-        <f>LEFT(F237,18)</f>
+        <f t="shared" si="7"/>
         <v>25-31-204-027-0000</v>
       </c>
       <c r="F237" t="s">
@@ -24043,17 +23687,8 @@
       <c r="BN237">
         <v>2007</v>
       </c>
-      <c r="BS237">
-        <v>74878.719750000004</v>
-      </c>
-      <c r="BU237">
-        <v>0.05</v>
-      </c>
-      <c r="BV237">
-        <v>1967</v>
-      </c>
-    </row>
-    <row r="238" spans="1:74" x14ac:dyDescent="0.8">
+    </row>
+    <row r="238" spans="1:66" x14ac:dyDescent="0.8">
       <c r="A238" s="4">
         <v>26051170020000</v>
       </c>
@@ -24061,14 +23696,14 @@
         <v>26051170020000</v>
       </c>
       <c r="C238" s="5" t="b">
-        <f>A238=B238</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D238" t="s">
         <v>272</v>
       </c>
       <c r="E238" t="str">
-        <f>LEFT(F238,18)</f>
+        <f t="shared" si="7"/>
         <v>26-05-117-002-0000</v>
       </c>
       <c r="F238" t="s">
@@ -24137,17 +23772,8 @@
       <c r="BN238">
         <v>1928</v>
       </c>
-      <c r="BS238">
-        <v>316118.83681349998</v>
-      </c>
-      <c r="BU238">
-        <v>0.05</v>
-      </c>
-      <c r="BV238">
-        <v>1987</v>
-      </c>
-    </row>
-    <row r="239" spans="1:74" x14ac:dyDescent="0.8">
+    </row>
+    <row r="239" spans="1:66" x14ac:dyDescent="0.8">
       <c r="A239" s="4">
         <v>26051170180000</v>
       </c>
@@ -24155,14 +23781,14 @@
         <v>26051170180000</v>
       </c>
       <c r="C239" s="5" t="b">
-        <f>A239=B239</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D239" t="s">
         <v>275</v>
       </c>
       <c r="E239" t="str">
-        <f>LEFT(F239,18)</f>
+        <f t="shared" si="7"/>
         <v>26-05-117-018-0000</v>
       </c>
       <c r="F239" t="s">
@@ -24231,17 +23857,8 @@
       <c r="BN239">
         <v>1967</v>
       </c>
-      <c r="BS239">
-        <v>137785.29105599999</v>
-      </c>
-      <c r="BU239">
-        <v>0.05</v>
-      </c>
-      <c r="BV239">
-        <v>1970</v>
-      </c>
-    </row>
-    <row r="240" spans="1:74" x14ac:dyDescent="0.8">
+    </row>
+    <row r="240" spans="1:66" x14ac:dyDescent="0.8">
       <c r="A240" s="4">
         <v>26051170240000</v>
       </c>
@@ -24249,14 +23866,14 @@
         <v>26051170240000</v>
       </c>
       <c r="C240" s="5" t="b">
-        <f>A240=B240</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D240" t="s">
         <v>290</v>
       </c>
       <c r="E240" t="str">
-        <f>LEFT(F240,18)</f>
+        <f t="shared" si="7"/>
         <v>26-05-117-024-0000</v>
       </c>
       <c r="F240" t="s">
@@ -24325,17 +23942,8 @@
       <c r="BN240">
         <v>1982</v>
       </c>
-      <c r="BS240">
-        <v>758714.42401677999</v>
-      </c>
-      <c r="BU240">
-        <v>0.03</v>
-      </c>
-      <c r="BV240">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="241" spans="1:74" x14ac:dyDescent="0.8">
+    </row>
+    <row r="241" spans="1:66" x14ac:dyDescent="0.8">
       <c r="A241" s="4">
         <v>26073140080000</v>
       </c>
@@ -24343,14 +23951,14 @@
         <v>26073140080000</v>
       </c>
       <c r="C241" s="5" t="b">
-        <f>A241=B241</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D241" t="s">
         <v>274</v>
       </c>
       <c r="E241" t="str">
-        <f>LEFT(F241,18)</f>
+        <f t="shared" si="7"/>
         <v>26-07-314-008-0000</v>
       </c>
       <c r="F241" t="s">
@@ -24419,17 +24027,8 @@
       <c r="BN241">
         <v>1990</v>
       </c>
-      <c r="BS241">
-        <v>543677.34464160004</v>
-      </c>
-      <c r="BU241">
-        <v>0.04</v>
-      </c>
-      <c r="BV241">
-        <v>1970</v>
-      </c>
-    </row>
-    <row r="242" spans="1:74" x14ac:dyDescent="0.8">
+    </row>
+    <row r="242" spans="1:66" x14ac:dyDescent="0.8">
       <c r="A242" s="4">
         <v>26073140100000</v>
       </c>
@@ -24437,14 +24036,14 @@
         <v>26073140100000</v>
       </c>
       <c r="C242" s="5" t="b">
-        <f>A242=B242</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D242" t="s">
         <v>256</v>
       </c>
       <c r="E242" t="str">
-        <f>LEFT(F242,18)</f>
+        <f t="shared" si="7"/>
         <v>26-07-314-010-0000</v>
       </c>
       <c r="F242" t="s">
@@ -24513,17 +24112,8 @@
       <c r="BN242">
         <v>1964</v>
       </c>
-      <c r="BS242">
-        <v>1048377.13695</v>
-      </c>
-      <c r="BU242">
-        <v>0.05</v>
-      </c>
-      <c r="BV242">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="243" spans="1:74" x14ac:dyDescent="0.8">
+    </row>
+    <row r="243" spans="1:66" x14ac:dyDescent="0.8">
       <c r="A243" s="4">
         <v>26073140120000</v>
       </c>
@@ -24531,14 +24121,14 @@
         <v>26073140120000</v>
       </c>
       <c r="C243" s="5" t="b">
-        <f>A243=B243</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D243" t="s">
         <v>266</v>
       </c>
       <c r="E243" t="str">
-        <f>LEFT(F243,18)</f>
+        <f t="shared" si="7"/>
         <v>26-07-314-012-0000</v>
       </c>
       <c r="F243" t="s">
@@ -24607,17 +24197,8 @@
       <c r="BN243">
         <v>1993</v>
       </c>
-      <c r="BS243">
-        <v>118202.47783124899</v>
-      </c>
-      <c r="BU243">
-        <v>0.05</v>
-      </c>
-      <c r="BV243">
-        <v>1997</v>
-      </c>
-    </row>
-    <row r="244" spans="1:74" x14ac:dyDescent="0.8">
+    </row>
+    <row r="244" spans="1:66" x14ac:dyDescent="0.8">
       <c r="A244" s="4">
         <v>26073140150000</v>
       </c>
@@ -24625,14 +24206,14 @@
         <v>26073140150000</v>
       </c>
       <c r="C244" s="5" t="b">
-        <f>A244=B244</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D244" t="s">
         <v>254</v>
       </c>
       <c r="E244" t="str">
-        <f>LEFT(F244,18)</f>
+        <f t="shared" si="7"/>
         <v>26-07-314-015-0000</v>
       </c>
       <c r="F244" t="s">
@@ -24701,17 +24282,8 @@
       <c r="BN244">
         <v>1993</v>
       </c>
-      <c r="BS244">
-        <v>611988.68362978497</v>
-      </c>
-      <c r="BU244">
-        <v>0.03</v>
-      </c>
-      <c r="BV244">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="245" spans="1:74" x14ac:dyDescent="0.8">
+    </row>
+    <row r="245" spans="1:66" x14ac:dyDescent="0.8">
       <c r="A245" s="4">
         <v>26074000160000</v>
       </c>
@@ -24719,14 +24291,14 @@
         <v>26074000160000</v>
       </c>
       <c r="C245" s="5" t="b">
-        <f>A245=B245</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D245" t="s">
         <v>393</v>
       </c>
       <c r="E245" t="str">
-        <f>LEFT(F245,18)</f>
+        <f t="shared" si="7"/>
         <v>26-07-400-016-0000</v>
       </c>
       <c r="F245" t="s">
@@ -24795,17 +24367,8 @@
       <c r="BN245">
         <v>1924</v>
       </c>
-      <c r="BS245">
-        <v>285945.65880399902</v>
-      </c>
-      <c r="BU245">
-        <v>0.05</v>
-      </c>
-      <c r="BV245">
-        <v>1970</v>
-      </c>
-    </row>
-    <row r="246" spans="1:74" x14ac:dyDescent="0.8">
+    </row>
+    <row r="246" spans="1:66" x14ac:dyDescent="0.8">
       <c r="A246" s="4">
         <v>26084070490000</v>
       </c>
@@ -24813,14 +24376,14 @@
         <v>26084070490000</v>
       </c>
       <c r="C246" s="5" t="b">
-        <f>A246=B246</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D246" t="s">
         <v>438</v>
       </c>
       <c r="E246" t="str">
-        <f>LEFT(F246,18)</f>
+        <f t="shared" si="7"/>
         <v>26-08-407-049-0000</v>
       </c>
       <c r="F246" t="s">
@@ -24895,17 +24458,8 @@
       <c r="BN246">
         <v>1972</v>
       </c>
-      <c r="BS246">
-        <v>67182.793499999898</v>
-      </c>
-      <c r="BU246">
-        <v>0.05</v>
-      </c>
-      <c r="BV246">
-        <v>1975</v>
-      </c>
-    </row>
-    <row r="247" spans="1:74" x14ac:dyDescent="0.8">
+    </row>
+    <row r="247" spans="1:66" x14ac:dyDescent="0.8">
       <c r="A247" s="4">
         <v>26181000190000</v>
       </c>
@@ -24913,14 +24467,14 @@
         <v>26181000190000</v>
       </c>
       <c r="C247" s="5" t="b">
-        <f>A247=B247</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D247" t="s">
         <v>301</v>
       </c>
       <c r="E247" t="str">
-        <f>LEFT(F247,18)</f>
+        <f t="shared" si="7"/>
         <v>26-18-100-019-0000</v>
       </c>
       <c r="F247" t="s">
@@ -24971,17 +24525,8 @@
       <c r="BN247">
         <v>2013</v>
       </c>
-      <c r="BS247">
-        <v>77978.572352999996</v>
-      </c>
-      <c r="BU247">
-        <v>0.05</v>
-      </c>
-      <c r="BV247">
-        <v>1966</v>
-      </c>
-    </row>
-    <row r="248" spans="1:74" x14ac:dyDescent="0.8">
+    </row>
+    <row r="248" spans="1:66" x14ac:dyDescent="0.8">
       <c r="A248" s="4">
         <v>26182000010000</v>
       </c>
@@ -24989,14 +24534,14 @@
         <v>26182000010000</v>
       </c>
       <c r="C248" s="5" t="b">
-        <f>A248=B248</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D248" t="s">
         <v>292</v>
       </c>
       <c r="E248" t="str">
-        <f>LEFT(F248,18)</f>
+        <f t="shared" si="7"/>
         <v>26-18-200-001-0000</v>
       </c>
       <c r="F248" t="s">
@@ -25065,17 +24610,8 @@
       <c r="BN248">
         <v>2013</v>
       </c>
-      <c r="BS248">
-        <v>1666255.9433309999</v>
-      </c>
-      <c r="BU248">
-        <v>0.03</v>
-      </c>
-      <c r="BV248">
-        <v>1981</v>
-      </c>
-    </row>
-    <row r="249" spans="1:74" x14ac:dyDescent="0.8">
+    </row>
+    <row r="249" spans="1:66" x14ac:dyDescent="0.8">
       <c r="A249" s="4">
         <v>26191020160000</v>
       </c>
@@ -25083,14 +24619,14 @@
         <v>26191020160000</v>
       </c>
       <c r="C249" s="5" t="b">
-        <f>A249=B249</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D249" t="s">
         <v>250</v>
       </c>
       <c r="E249" t="str">
-        <f>LEFT(F249,18)</f>
+        <f t="shared" si="7"/>
         <v>26-19-102-016-0000</v>
       </c>
       <c r="F249" t="s">
@@ -25156,17 +24692,8 @@
       <c r="BN249">
         <v>1948</v>
       </c>
-      <c r="BS249">
-        <v>217276.28671874999</v>
-      </c>
-      <c r="BU249">
-        <v>0.03</v>
-      </c>
-      <c r="BV249">
-        <v>1975</v>
-      </c>
-    </row>
-    <row r="250" spans="1:74" x14ac:dyDescent="0.8">
+    </row>
+    <row r="250" spans="1:66" x14ac:dyDescent="0.8">
       <c r="A250" s="4">
         <v>26192000280000</v>
       </c>
@@ -25174,14 +24701,14 @@
         <v>26192000280000</v>
       </c>
       <c r="C250" s="5" t="b">
-        <f>A250=B250</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D250" t="s">
         <v>294</v>
       </c>
       <c r="E250" t="str">
-        <f>LEFT(F250,18)</f>
+        <f t="shared" si="7"/>
         <v>26-19-200-028-0000</v>
       </c>
       <c r="F250" t="s">
@@ -25250,17 +24777,8 @@
       <c r="BN250">
         <v>1972</v>
       </c>
-      <c r="BS250">
-        <v>194647.27185168801</v>
-      </c>
-      <c r="BU250">
-        <v>0.03</v>
-      </c>
-      <c r="BV250">
-        <v>1954</v>
-      </c>
-    </row>
-    <row r="251" spans="1:74" x14ac:dyDescent="0.8">
+    </row>
+    <row r="251" spans="1:66" x14ac:dyDescent="0.8">
       <c r="A251" s="4">
         <v>26193010030000</v>
       </c>
@@ -25268,14 +24786,14 @@
         <v>26193010030000</v>
       </c>
       <c r="C251" s="5" t="b">
-        <f>A251=B251</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D251" t="s">
         <v>247</v>
       </c>
       <c r="E251" t="str">
-        <f>LEFT(F251,18)</f>
+        <f t="shared" si="7"/>
         <v>26-19-301-003-0000</v>
       </c>
       <c r="F251" t="s">
@@ -25344,17 +24862,8 @@
       <c r="BN251">
         <v>2014</v>
       </c>
-      <c r="BS251">
-        <v>124714.575</v>
-      </c>
-      <c r="BU251">
-        <v>0.05</v>
-      </c>
-      <c r="BV251">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="252" spans="1:74" x14ac:dyDescent="0.8">
+    </row>
+    <row r="252" spans="1:66" x14ac:dyDescent="0.8">
       <c r="A252" s="4">
         <v>26301000510000</v>
       </c>
@@ -25362,14 +24871,14 @@
         <v>26301000510000</v>
       </c>
       <c r="C252" s="5" t="b">
-        <f>A252=B252</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D252" t="s">
         <v>270</v>
       </c>
       <c r="E252" t="str">
-        <f>LEFT(F252,18)</f>
+        <f t="shared" si="7"/>
         <v>26-30-100-051-0000</v>
       </c>
       <c r="F252" t="s">
@@ -25438,17 +24947,8 @@
       <c r="BN252">
         <v>2005</v>
       </c>
-      <c r="BS252">
-        <v>264377.95118999999</v>
-      </c>
-      <c r="BU252">
-        <v>0.04</v>
-      </c>
-      <c r="BV252">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="253" spans="1:74" x14ac:dyDescent="0.8">
+    </row>
+    <row r="253" spans="1:66" x14ac:dyDescent="0.8">
       <c r="A253" s="4">
         <v>26302000140000</v>
       </c>
@@ -25456,14 +24956,14 @@
         <v>26302000140000</v>
       </c>
       <c r="C253" s="5" t="b">
-        <f>A253=B253</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D253" t="s">
         <v>260</v>
       </c>
       <c r="E253" t="str">
-        <f>LEFT(F253,18)</f>
+        <f t="shared" si="7"/>
         <v>26-30-200-014-0000</v>
       </c>
       <c r="F253" t="s">
@@ -25532,17 +25032,8 @@
       <c r="BN253">
         <v>2005</v>
       </c>
-      <c r="BS253">
-        <v>80177.5840455</v>
-      </c>
-      <c r="BU253">
-        <v>0.05</v>
-      </c>
-      <c r="BV253">
-        <v>1989</v>
-      </c>
-    </row>
-    <row r="254" spans="1:74" x14ac:dyDescent="0.8">
+    </row>
+    <row r="254" spans="1:66" x14ac:dyDescent="0.8">
       <c r="A254" s="4">
         <v>26302040010000</v>
       </c>
@@ -25550,14 +25041,14 @@
         <v>26302040010000</v>
       </c>
       <c r="C254" s="5" t="b">
-        <f>A254=B254</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D254" t="s">
         <v>288</v>
       </c>
       <c r="E254" t="str">
-        <f>LEFT(F254,18)</f>
+        <f t="shared" si="7"/>
         <v>26-30-204-001-0000</v>
       </c>
       <c r="F254" t="s">
@@ -25626,14 +25117,8 @@
       <c r="BN254">
         <v>2005</v>
       </c>
-      <c r="BU254">
-        <v>0.1</v>
-      </c>
-      <c r="BV254">
-        <v>1965</v>
-      </c>
-    </row>
-    <row r="255" spans="1:74" x14ac:dyDescent="0.8">
+    </row>
+    <row r="255" spans="1:66" x14ac:dyDescent="0.8">
       <c r="A255" s="4">
         <v>26302040020000</v>
       </c>
@@ -25641,14 +25126,14 @@
         <v>26302040020000</v>
       </c>
       <c r="C255" s="5" t="b">
-        <f>A255=B255</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D255" t="s">
         <v>258</v>
       </c>
       <c r="E255" t="str">
-        <f>LEFT(F255,18)</f>
+        <f t="shared" si="7"/>
         <v>26-30-204-002-0000</v>
       </c>
       <c r="F255" t="s">
@@ -25717,14 +25202,8 @@
       <c r="BN255">
         <v>2005</v>
       </c>
-      <c r="BU255">
-        <v>0.1</v>
-      </c>
-      <c r="BV255">
-        <v>1997</v>
-      </c>
-    </row>
-    <row r="256" spans="1:74" x14ac:dyDescent="0.8">
+    </row>
+    <row r="256" spans="1:66" x14ac:dyDescent="0.8">
       <c r="A256" s="4">
         <v>26313030340000</v>
       </c>
@@ -25732,14 +25211,14 @@
         <v>26313030340000</v>
       </c>
       <c r="C256" s="5" t="b">
-        <f>A256=B256</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D256" t="s">
         <v>299</v>
       </c>
       <c r="E256" t="str">
-        <f>LEFT(F256,18)</f>
+        <f t="shared" si="7"/>
         <v>26-31-303-034-0000</v>
       </c>
       <c r="F256" t="s">
@@ -25808,14 +25287,8 @@
       <c r="BN256">
         <v>2019</v>
       </c>
-      <c r="BU256">
-        <v>0.15</v>
-      </c>
-      <c r="BV256">
-        <v>1978</v>
-      </c>
-    </row>
-    <row r="257" spans="1:74" x14ac:dyDescent="0.8">
+    </row>
+    <row r="257" spans="1:67" x14ac:dyDescent="0.8">
       <c r="A257" s="4">
         <v>27133080620000</v>
       </c>
@@ -25823,14 +25296,14 @@
         <v>27133080620000</v>
       </c>
       <c r="C257" s="5" t="b">
-        <f>A257=B257</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D257" t="s">
         <v>949</v>
       </c>
       <c r="E257" t="str">
-        <f>LEFT(F257,18)</f>
+        <f t="shared" si="7"/>
         <v>27-13-308-062-0000</v>
       </c>
       <c r="F257" t="s">
@@ -25899,14 +25372,8 @@
       <c r="BO257">
         <v>28033</v>
       </c>
-      <c r="BU257">
-        <v>0.1</v>
-      </c>
-      <c r="BV257">
-        <v>1944</v>
-      </c>
-    </row>
-    <row r="258" spans="1:74" x14ac:dyDescent="0.8">
+    </row>
+    <row r="258" spans="1:67" x14ac:dyDescent="0.8">
       <c r="A258" s="4">
         <v>27143000680000</v>
       </c>
@@ -25914,14 +25381,14 @@
         <v>27143000680000</v>
       </c>
       <c r="C258" s="5" t="b">
-        <f>A258=B258</f>
+        <f t="shared" ref="C258:C321" si="8">A258=B258</f>
         <v>1</v>
       </c>
       <c r="D258" t="s">
         <v>984</v>
       </c>
       <c r="E258" t="str">
-        <f>LEFT(F258,18)</f>
+        <f t="shared" ref="E258:E321" si="9">LEFT(F258,18)</f>
         <v>27-14-300-068-0000</v>
       </c>
       <c r="F258" t="s">
@@ -25990,14 +25457,8 @@
       <c r="BO258">
         <v>28011</v>
       </c>
-      <c r="BU258">
-        <v>0.1</v>
-      </c>
-      <c r="BV258">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="259" spans="1:74" x14ac:dyDescent="0.8">
+    </row>
+    <row r="259" spans="1:67" x14ac:dyDescent="0.8">
       <c r="A259" s="4">
         <v>27222010190000</v>
       </c>
@@ -26005,14 +25466,14 @@
         <v>27222010190000</v>
       </c>
       <c r="C259" s="5" t="b">
-        <f>A259=B259</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="D259" t="s">
         <v>989</v>
       </c>
       <c r="E259" t="str">
-        <f>LEFT(F259,18)</f>
+        <f t="shared" si="9"/>
         <v>27-22-201-019-0000</v>
       </c>
       <c r="F259" t="s">
@@ -26081,14 +25542,8 @@
       <c r="BO259">
         <v>28020</v>
       </c>
-      <c r="BU259">
-        <v>0.15</v>
-      </c>
-      <c r="BV259">
-        <v>1979</v>
-      </c>
-    </row>
-    <row r="260" spans="1:74" x14ac:dyDescent="0.8">
+    </row>
+    <row r="260" spans="1:67" x14ac:dyDescent="0.8">
       <c r="A260" s="4">
         <v>27242020220000</v>
       </c>
@@ -26096,14 +25551,14 @@
         <v>27242020220000</v>
       </c>
       <c r="C260" s="5" t="b">
-        <f>A260=B260</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="D260" t="s">
         <v>905</v>
       </c>
       <c r="E260" t="str">
-        <f>LEFT(F260,18)</f>
+        <f t="shared" si="9"/>
         <v>27-24-202-022-0000</v>
       </c>
       <c r="F260" t="s">
@@ -26169,14 +25624,8 @@
       <c r="BO260">
         <v>28027</v>
       </c>
-      <c r="BU260">
-        <v>0.1</v>
-      </c>
-      <c r="BV260">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="261" spans="1:74" x14ac:dyDescent="0.8">
+    </row>
+    <row r="261" spans="1:67" x14ac:dyDescent="0.8">
       <c r="A261" s="4">
         <v>27362040140000</v>
       </c>
@@ -26184,14 +25633,14 @@
         <v>27362040140000</v>
       </c>
       <c r="C261" s="5" t="b">
-        <f>A261=B261</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="D261" t="s">
         <v>747</v>
       </c>
       <c r="E261" t="str">
-        <f>LEFT(F261,18)</f>
+        <f t="shared" si="9"/>
         <v>27-36-204-014-0000</v>
       </c>
       <c r="F261" t="s">
@@ -26254,14 +25703,8 @@
       <c r="BO261">
         <v>28092</v>
       </c>
-      <c r="BU261">
-        <v>0.15</v>
-      </c>
-      <c r="BV261">
-        <v>1955</v>
-      </c>
-    </row>
-    <row r="262" spans="1:74" x14ac:dyDescent="0.8">
+    </row>
+    <row r="262" spans="1:67" x14ac:dyDescent="0.8">
       <c r="A262" s="4">
         <v>27362050290000</v>
       </c>
@@ -26269,14 +25712,14 @@
         <v>27362050290000</v>
       </c>
       <c r="C262" s="5" t="b">
-        <f>A262=B262</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="D262" t="s">
         <v>752</v>
       </c>
       <c r="E262" t="str">
-        <f>LEFT(F262,18)</f>
+        <f t="shared" si="9"/>
         <v>27-36-205-029-0000</v>
       </c>
       <c r="F262" t="s">
@@ -26339,14 +25782,8 @@
       <c r="BO262">
         <v>28092</v>
       </c>
-      <c r="BU262">
-        <v>0.1</v>
-      </c>
-      <c r="BV262">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="263" spans="1:74" x14ac:dyDescent="0.8">
+    </row>
+    <row r="263" spans="1:67" x14ac:dyDescent="0.8">
       <c r="A263" s="4">
         <v>28014000030000</v>
       </c>
@@ -26354,14 +25791,14 @@
         <v>28014000030000</v>
       </c>
       <c r="C263" s="5" t="b">
-        <f>A263=B263</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="D263" t="s">
         <v>710</v>
       </c>
       <c r="E263" t="str">
-        <f>LEFT(F263,18)</f>
+        <f t="shared" si="9"/>
         <v>28-01-400-003-0000</v>
       </c>
       <c r="F263" t="s">
@@ -26424,14 +25861,8 @@
       <c r="BO263">
         <v>13144</v>
       </c>
-      <c r="BU263">
-        <v>0.15</v>
-      </c>
-      <c r="BV263">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="264" spans="1:74" x14ac:dyDescent="0.8">
+    </row>
+    <row r="264" spans="1:67" x14ac:dyDescent="0.8">
       <c r="A264" s="4">
         <v>28022200090000</v>
       </c>
@@ -26439,14 +25870,14 @@
         <v>28022200090000</v>
       </c>
       <c r="C264" s="5" t="b">
-        <f>A264=B264</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="D264" t="s">
         <v>660</v>
       </c>
       <c r="E264" t="str">
-        <f>LEFT(F264,18)</f>
+        <f t="shared" si="9"/>
         <v>28-02-220-009-0000</v>
       </c>
       <c r="F264" t="s">
@@ -26518,14 +25949,8 @@
       <c r="BN264">
         <v>1994</v>
       </c>
-      <c r="BU264">
-        <v>0.1</v>
-      </c>
-      <c r="BV264">
-        <v>1973</v>
-      </c>
-    </row>
-    <row r="265" spans="1:74" x14ac:dyDescent="0.8">
+    </row>
+    <row r="265" spans="1:67" x14ac:dyDescent="0.8">
       <c r="A265" s="4">
         <v>28111270220000</v>
       </c>
@@ -26533,14 +25958,14 @@
         <v>28111270220000</v>
       </c>
       <c r="C265" s="5" t="b">
-        <f>A265=B265</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="D265" t="s">
         <v>671</v>
       </c>
       <c r="E265" t="str">
-        <f>LEFT(F265,18)</f>
+        <f t="shared" si="9"/>
         <v>28-11-127-022-0000</v>
       </c>
       <c r="F265" t="s">
@@ -26612,14 +26037,8 @@
       <c r="BN265">
         <v>1947</v>
       </c>
-      <c r="BU265">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="BV265">
-        <v>1918</v>
-      </c>
-    </row>
-    <row r="266" spans="1:74" x14ac:dyDescent="0.8">
+    </row>
+    <row r="266" spans="1:67" x14ac:dyDescent="0.8">
       <c r="A266" s="4">
         <v>28162080300000</v>
       </c>
@@ -26627,14 +26046,14 @@
         <v>28162080300000</v>
       </c>
       <c r="C266" s="5" t="b">
-        <f>A266=B266</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="D266" t="s">
         <v>665</v>
       </c>
       <c r="E266" t="str">
-        <f>LEFT(F266,18)</f>
+        <f t="shared" si="9"/>
         <v>28-16-208-030-0000</v>
       </c>
       <c r="F266" t="s">
@@ -26706,11 +26125,8 @@
       <c r="BN266">
         <v>1968</v>
       </c>
-      <c r="BV266">
-        <v>1909</v>
-      </c>
-    </row>
-    <row r="267" spans="1:74" x14ac:dyDescent="0.8">
+    </row>
+    <row r="267" spans="1:67" x14ac:dyDescent="0.8">
       <c r="A267" s="4">
         <v>28224240010000</v>
       </c>
@@ -26718,14 +26134,14 @@
         <v>28224240010000</v>
       </c>
       <c r="C267" s="5" t="b">
-        <f>A267=B267</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="D267" t="s">
         <v>887</v>
       </c>
       <c r="E267" t="str">
-        <f>LEFT(F267,18)</f>
+        <f t="shared" si="9"/>
         <v>28-22-424-001-0000</v>
       </c>
       <c r="F267" t="s">
@@ -26788,11 +26204,8 @@
       <c r="BO267">
         <v>13188</v>
       </c>
-      <c r="BV267">
-        <v>1896</v>
-      </c>
-    </row>
-    <row r="268" spans="1:74" x14ac:dyDescent="0.8">
+    </row>
+    <row r="268" spans="1:67" x14ac:dyDescent="0.8">
       <c r="A268" s="4">
         <v>28232070120000</v>
       </c>
@@ -26800,14 +26213,14 @@
         <v>28232070120000</v>
       </c>
       <c r="C268" s="5" t="b">
-        <f>A268=B268</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="D268" t="s">
         <v>668</v>
       </c>
       <c r="E268" t="str">
-        <f>LEFT(F268,18)</f>
+        <f t="shared" si="9"/>
         <v>28-23-207-012-0000</v>
       </c>
       <c r="F268" t="s">
@@ -26879,14 +26292,8 @@
       <c r="BN268">
         <v>1960</v>
       </c>
-      <c r="BU268">
-        <v>0.2</v>
-      </c>
-      <c r="BV268">
-        <v>1939</v>
-      </c>
-    </row>
-    <row r="269" spans="1:74" x14ac:dyDescent="0.8">
+    </row>
+    <row r="269" spans="1:67" x14ac:dyDescent="0.8">
       <c r="A269" s="4">
         <v>28243080050000</v>
       </c>
@@ -26894,14 +26301,14 @@
         <v>28243080050000</v>
       </c>
       <c r="C269" s="5" t="b">
-        <f>A269=B269</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="D269" t="s">
         <v>714</v>
       </c>
       <c r="E269" t="str">
-        <f>LEFT(F269,18)</f>
+        <f t="shared" si="9"/>
         <v>28-24-308-005-0000</v>
       </c>
       <c r="F269" t="s">
@@ -26964,14 +26371,8 @@
       <c r="BO269">
         <v>13043</v>
       </c>
-      <c r="BU269">
-        <v>0.15</v>
-      </c>
-      <c r="BV269">
-        <v>1998</v>
-      </c>
-    </row>
-    <row r="270" spans="1:74" x14ac:dyDescent="0.8">
+    </row>
+    <row r="270" spans="1:67" x14ac:dyDescent="0.8">
       <c r="A270" s="4">
         <v>29032000450000</v>
       </c>
@@ -26979,14 +26380,14 @@
         <v>29032000450000</v>
       </c>
       <c r="C270" s="5" t="b">
-        <f>A270=B270</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="D270" t="s">
         <v>826</v>
       </c>
       <c r="E270" t="str">
-        <f>LEFT(F270,18)</f>
+        <f t="shared" si="9"/>
         <v>29-03-200-045-0000</v>
       </c>
       <c r="F270" t="s">
@@ -27049,14 +26450,8 @@
       <c r="BO270">
         <v>37237</v>
       </c>
-      <c r="BU270">
-        <v>0.04</v>
-      </c>
-      <c r="BV270">
-        <v>1994</v>
-      </c>
-    </row>
-    <row r="271" spans="1:74" x14ac:dyDescent="0.8">
+    </row>
+    <row r="271" spans="1:67" x14ac:dyDescent="0.8">
       <c r="A271" s="4">
         <v>29071360440000</v>
       </c>
@@ -27064,14 +26459,14 @@
         <v>29071360440000</v>
       </c>
       <c r="C271" s="5" t="b">
-        <f>A271=B271</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="D271" t="s">
         <v>590</v>
       </c>
       <c r="E271" t="str">
-        <f>LEFT(F271,18)</f>
+        <f t="shared" si="9"/>
         <v>29-07-136-044-0000</v>
       </c>
       <c r="F271" t="s">
@@ -27143,14 +26538,8 @@
       <c r="BN271">
         <v>2007</v>
       </c>
-      <c r="BU271">
-        <v>0.15</v>
-      </c>
-      <c r="BV271">
-        <v>1999</v>
-      </c>
-    </row>
-    <row r="272" spans="1:74" x14ac:dyDescent="0.8">
+    </row>
+    <row r="272" spans="1:67" x14ac:dyDescent="0.8">
       <c r="A272" s="4">
         <v>29084030140000</v>
       </c>
@@ -27158,14 +26547,14 @@
         <v>29084030140000</v>
       </c>
       <c r="C272" s="5" t="b">
-        <f>A272=B272</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="D272" t="s">
         <v>632</v>
       </c>
       <c r="E272" t="str">
-        <f>LEFT(F272,18)</f>
+        <f t="shared" si="9"/>
         <v>29-08-403-014-0000</v>
       </c>
       <c r="F272" t="s">
@@ -27237,11 +26626,8 @@
       <c r="BN272">
         <v>2010</v>
       </c>
-      <c r="BU272">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="273" spans="1:74" x14ac:dyDescent="0.8">
+    </row>
+    <row r="273" spans="1:67" x14ac:dyDescent="0.8">
       <c r="A273" s="4">
         <v>29092280430000</v>
       </c>
@@ -27249,14 +26635,14 @@
         <v>29092280430000</v>
       </c>
       <c r="C273" s="5" t="b">
-        <f>A273=B273</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="D273" t="s">
         <v>601</v>
       </c>
       <c r="E273" t="str">
-        <f>LEFT(F273,18)</f>
+        <f t="shared" si="9"/>
         <v>29-09-228-043-0000</v>
       </c>
       <c r="F273" t="s">
@@ -27328,14 +26714,8 @@
       <c r="BN273">
         <v>2004</v>
       </c>
-      <c r="BU273">
-        <v>0.13</v>
-      </c>
-      <c r="BV273">
-        <v>1953</v>
-      </c>
-    </row>
-    <row r="274" spans="1:74" x14ac:dyDescent="0.8">
+    </row>
+    <row r="274" spans="1:67" x14ac:dyDescent="0.8">
       <c r="A274" s="4">
         <v>29124000010000</v>
       </c>
@@ -27343,14 +26723,14 @@
         <v>29124000010000</v>
       </c>
       <c r="C274" s="5" t="b">
-        <f>A274=B274</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="D274" t="s">
         <v>624</v>
       </c>
       <c r="E274" t="str">
-        <f>LEFT(F274,18)</f>
+        <f t="shared" si="9"/>
         <v>29-12-400-001-0000</v>
       </c>
       <c r="F274" t="s">
@@ -27422,11 +26802,8 @@
       <c r="BN274">
         <v>2001</v>
       </c>
-      <c r="BU274">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="275" spans="1:74" x14ac:dyDescent="0.8">
+    </row>
+    <row r="275" spans="1:67" x14ac:dyDescent="0.8">
       <c r="A275" s="4">
         <v>29124150310000</v>
       </c>
@@ -27434,14 +26811,14 @@
         <v>29124150310000</v>
       </c>
       <c r="C275" s="5" t="b">
-        <f>A275=B275</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="D275" t="s">
         <v>620</v>
       </c>
       <c r="E275" t="str">
-        <f>LEFT(F275,18)</f>
+        <f t="shared" si="9"/>
         <v>29-12-415-031-0000</v>
       </c>
       <c r="F275" t="s">
@@ -27513,14 +26890,8 @@
       <c r="BN275">
         <v>2004</v>
       </c>
-      <c r="BU275">
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="BV275">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="276" spans="1:74" x14ac:dyDescent="0.8">
+    </row>
+    <row r="276" spans="1:67" x14ac:dyDescent="0.8">
       <c r="A276" s="4">
         <v>29153080670000</v>
       </c>
@@ -27528,14 +26899,14 @@
         <v>29153080670000</v>
       </c>
       <c r="C276" s="5" t="b">
-        <f>A276=B276</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="D276" t="s">
         <v>594</v>
       </c>
       <c r="E276" t="str">
-        <f>LEFT(F276,18)</f>
+        <f t="shared" si="9"/>
         <v>29-15-308-067-0000</v>
       </c>
       <c r="F276" t="s">
@@ -27607,14 +26978,8 @@
       <c r="BN276">
         <v>2006</v>
       </c>
-      <c r="BU276">
-        <v>0.2</v>
-      </c>
-      <c r="BV276">
-        <v>1967</v>
-      </c>
-    </row>
-    <row r="277" spans="1:74" x14ac:dyDescent="0.8">
+    </row>
+    <row r="277" spans="1:67" x14ac:dyDescent="0.8">
       <c r="A277" s="4">
         <v>29161210010000</v>
       </c>
@@ -27622,14 +26987,14 @@
         <v>29161210010000</v>
       </c>
       <c r="C277" s="5" t="b">
-        <f>A277=B277</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="D277" t="s">
         <v>612</v>
       </c>
       <c r="E277" t="str">
-        <f>LEFT(F277,18)</f>
+        <f t="shared" si="9"/>
         <v>29-16-121-001-0000</v>
       </c>
       <c r="F277" t="s">
@@ -27701,17 +27066,8 @@
       <c r="BN277">
         <v>2007</v>
       </c>
-      <c r="BS277">
-        <v>21100171.3654867</v>
-      </c>
-      <c r="BU277">
-        <v>0.04</v>
-      </c>
-      <c r="BV277">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="278" spans="1:74" x14ac:dyDescent="0.8">
+    </row>
+    <row r="278" spans="1:67" x14ac:dyDescent="0.8">
       <c r="A278" s="4">
         <v>29164001710000</v>
       </c>
@@ -27719,14 +27075,14 @@
         <v>29164001710000</v>
       </c>
       <c r="C278" s="5" t="b">
-        <f>A278=B278</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="D278" t="s">
         <v>607</v>
       </c>
       <c r="E278" t="str">
-        <f>LEFT(F278,18)</f>
+        <f t="shared" si="9"/>
         <v>29-16-400-171-0000</v>
       </c>
       <c r="F278" t="s">
@@ -27798,14 +27154,8 @@
       <c r="BN278">
         <v>2005</v>
       </c>
-      <c r="BU278">
-        <v>0.05</v>
-      </c>
-      <c r="BV278">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="279" spans="1:74" x14ac:dyDescent="0.8">
+    </row>
+    <row r="279" spans="1:67" x14ac:dyDescent="0.8">
       <c r="A279" s="4">
         <v>29184260150000</v>
       </c>
@@ -27813,14 +27163,14 @@
         <v>29184260070000</v>
       </c>
       <c r="C279" s="5" t="b">
-        <f>A279=B279</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="D279" t="s">
         <v>598</v>
       </c>
       <c r="E279" t="str">
-        <f>LEFT(F279,18)</f>
+        <f t="shared" si="9"/>
         <v>29-18-426-007-0000</v>
       </c>
       <c r="F279" t="s">
@@ -27892,11 +27242,8 @@
       <c r="BN279">
         <v>2004</v>
       </c>
-      <c r="BV279">
-        <v>1975</v>
-      </c>
-    </row>
-    <row r="280" spans="1:74" ht="33.6" customHeight="1" x14ac:dyDescent="0.8">
+    </row>
+    <row r="280" spans="1:67" ht="33.6" customHeight="1" x14ac:dyDescent="0.8">
       <c r="A280" s="4">
         <v>29191100010000</v>
       </c>
@@ -27904,7 +27251,7 @@
         <v>29191100010000</v>
       </c>
       <c r="C280" s="5" t="b">
-        <f>A280=B280</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="D280" t="s">
@@ -27973,14 +27320,8 @@
       <c r="BO280">
         <v>37298</v>
       </c>
-      <c r="BU280">
-        <v>0.2</v>
-      </c>
-      <c r="BV280">
-        <v>1982</v>
-      </c>
-    </row>
-    <row r="281" spans="1:74" x14ac:dyDescent="0.8">
+    </row>
+    <row r="281" spans="1:67" x14ac:dyDescent="0.8">
       <c r="A281" s="4">
         <v>29193080020000</v>
       </c>
@@ -27988,14 +27329,14 @@
         <v>29193080020000</v>
       </c>
       <c r="C281" s="5" t="b">
-        <f>A281=B281</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="D281" t="s">
         <v>853</v>
       </c>
       <c r="E281" t="str">
-        <f>LEFT(F281,18)</f>
+        <f t="shared" ref="E281:E307" si="10">LEFT(F281,18)</f>
         <v>29-19-308-002-0000</v>
       </c>
       <c r="F281" t="s">
@@ -28058,11 +27399,8 @@
       <c r="BO281">
         <v>37265</v>
       </c>
-      <c r="BV281">
-        <v>1910</v>
-      </c>
-    </row>
-    <row r="282" spans="1:74" x14ac:dyDescent="0.8">
+    </row>
+    <row r="282" spans="1:67" x14ac:dyDescent="0.8">
       <c r="A282" s="4">
         <v>29193100070000</v>
       </c>
@@ -28070,14 +27408,14 @@
         <v>29193100070000</v>
       </c>
       <c r="C282" s="5" t="b">
-        <f>A282=B282</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="D282" t="s">
         <v>813</v>
       </c>
       <c r="E282" t="str">
-        <f>LEFT(F282,18)</f>
+        <f t="shared" si="10"/>
         <v>29-19-310-007-0000</v>
       </c>
       <c r="F282" t="s">
@@ -28140,11 +27478,8 @@
       <c r="BO282">
         <v>37055</v>
       </c>
-      <c r="BV282">
-        <v>1919</v>
-      </c>
-    </row>
-    <row r="283" spans="1:74" x14ac:dyDescent="0.8">
+    </row>
+    <row r="283" spans="1:67" x14ac:dyDescent="0.8">
       <c r="A283" s="4">
         <v>29193100110000</v>
       </c>
@@ -28152,14 +27487,14 @@
         <v>29193100110000</v>
       </c>
       <c r="C283" s="5" t="b">
-        <f>A283=B283</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="D283" t="s">
         <v>894</v>
       </c>
       <c r="E283" t="str">
-        <f>LEFT(F283,18)</f>
+        <f t="shared" si="10"/>
         <v>29-19-310-011-0000</v>
       </c>
       <c r="F283" t="s">
@@ -28222,11 +27557,8 @@
       <c r="BO283">
         <v>37162</v>
       </c>
-      <c r="BV283">
-        <v>1919</v>
-      </c>
-    </row>
-    <row r="284" spans="1:74" x14ac:dyDescent="0.8">
+    </row>
+    <row r="284" spans="1:67" x14ac:dyDescent="0.8">
       <c r="A284" s="4">
         <v>29213120110000</v>
       </c>
@@ -28234,14 +27566,14 @@
         <v>29213120110000</v>
       </c>
       <c r="C284" s="5" t="b">
-        <f>A284=B284</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="D284" t="s">
         <v>616</v>
       </c>
       <c r="E284" t="str">
-        <f>LEFT(F284,18)</f>
+        <f t="shared" si="10"/>
         <v>29-21-312-011-0000</v>
       </c>
       <c r="F284" t="s">
@@ -28313,11 +27645,8 @@
       <c r="BN284">
         <v>2005</v>
       </c>
-      <c r="BV284">
-        <v>1921</v>
-      </c>
-    </row>
-    <row r="285" spans="1:74" x14ac:dyDescent="0.8">
+    </row>
+    <row r="285" spans="1:67" x14ac:dyDescent="0.8">
       <c r="A285" s="4">
         <v>29214010380000</v>
       </c>
@@ -28325,14 +27654,14 @@
         <v>29214010380000</v>
       </c>
       <c r="C285" s="5" t="b">
-        <f>A285=B285</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="D285" t="s">
         <v>817</v>
       </c>
       <c r="E285" t="str">
-        <f>LEFT(F285,18)</f>
+        <f t="shared" si="10"/>
         <v>29-21-401-038-0000</v>
       </c>
       <c r="F285" t="s">
@@ -28395,11 +27724,8 @@
       <c r="BO285">
         <v>37059</v>
       </c>
-      <c r="BV285">
-        <v>1921</v>
-      </c>
-    </row>
-    <row r="286" spans="1:74" x14ac:dyDescent="0.8">
+    </row>
+    <row r="286" spans="1:67" x14ac:dyDescent="0.8">
       <c r="A286" s="4">
         <v>29231090260000</v>
       </c>
@@ -28407,14 +27733,14 @@
         <v>29231090260000</v>
       </c>
       <c r="C286" s="5" t="b">
-        <f>A286=B286</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="D286" t="s">
         <v>587</v>
       </c>
       <c r="E286" t="str">
-        <f>LEFT(F286,18)</f>
+        <f t="shared" si="10"/>
         <v>29-23-109-026-0000</v>
       </c>
       <c r="F286" t="s">
@@ -28486,14 +27812,8 @@
       <c r="BN286">
         <v>1963</v>
       </c>
-      <c r="BU286">
-        <v>0.2</v>
-      </c>
-      <c r="BV286">
-        <v>1977</v>
-      </c>
-    </row>
-    <row r="287" spans="1:74" x14ac:dyDescent="0.8">
+    </row>
+    <row r="287" spans="1:67" x14ac:dyDescent="0.8">
       <c r="A287" s="4">
         <v>29253010510000</v>
       </c>
@@ -28501,14 +27821,14 @@
         <v>29253010510000</v>
       </c>
       <c r="C287" s="5" t="b">
-        <f>A287=B287</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="D287" t="s">
         <v>820</v>
       </c>
       <c r="E287" t="str">
-        <f>LEFT(F287,18)</f>
+        <f t="shared" si="10"/>
         <v>29-25-301-051-0000</v>
       </c>
       <c r="F287" t="s">
@@ -28571,14 +27891,8 @@
       <c r="BO287">
         <v>37144</v>
       </c>
-      <c r="BU287">
-        <v>0.16</v>
-      </c>
-      <c r="BV287">
-        <v>1977</v>
-      </c>
-    </row>
-    <row r="288" spans="1:74" x14ac:dyDescent="0.8">
+    </row>
+    <row r="288" spans="1:67" x14ac:dyDescent="0.8">
       <c r="A288" s="4">
         <v>29271070320000</v>
       </c>
@@ -28586,14 +27900,14 @@
         <v>29271010230000</v>
       </c>
       <c r="C288" s="5" t="b">
-        <f>A288=B288</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="D288" t="s">
         <v>583</v>
       </c>
       <c r="E288" t="str">
-        <f>LEFT(F288,18)</f>
+        <f t="shared" si="10"/>
         <v>29-27-101-023-0000</v>
       </c>
       <c r="F288" t="s">
@@ -28665,14 +27979,8 @@
       <c r="BN288">
         <v>2001</v>
       </c>
-      <c r="BU288">
-        <v>0.16</v>
-      </c>
-      <c r="BV288">
-        <v>1977</v>
-      </c>
-    </row>
-    <row r="289" spans="1:74" x14ac:dyDescent="0.8">
+    </row>
+    <row r="289" spans="1:67" x14ac:dyDescent="0.8">
       <c r="A289" s="4">
         <v>29314080110000</v>
       </c>
@@ -28680,14 +27988,14 @@
         <v>29314080110000</v>
       </c>
       <c r="C289" s="5" t="b">
-        <f>A289=B289</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="D289" t="s">
         <v>576</v>
       </c>
       <c r="E289" t="str">
-        <f>LEFT(F289,18)</f>
+        <f t="shared" si="10"/>
         <v>29-31-408-011-0000</v>
       </c>
       <c r="F289" t="s">
@@ -28759,14 +28067,8 @@
       <c r="BN289">
         <v>1954</v>
       </c>
-      <c r="BU289">
-        <v>0.04</v>
-      </c>
-      <c r="BV289">
-        <v>1977</v>
-      </c>
-    </row>
-    <row r="290" spans="1:74" x14ac:dyDescent="0.8">
+    </row>
+    <row r="290" spans="1:67" x14ac:dyDescent="0.8">
       <c r="A290" s="4">
         <v>29321010640000</v>
       </c>
@@ -28774,14 +28076,14 @@
         <v>29321010640000</v>
       </c>
       <c r="C290" s="5" t="b">
-        <f>A290=B290</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="D290" t="s">
         <v>823</v>
       </c>
       <c r="E290" t="str">
-        <f>LEFT(F290,18)</f>
+        <f t="shared" si="10"/>
         <v>29-32-101-064-0000</v>
       </c>
       <c r="F290" t="s">
@@ -28844,17 +28146,8 @@
       <c r="BO290">
         <v>37069</v>
       </c>
-      <c r="BS290">
-        <v>60645.410477079997</v>
-      </c>
-      <c r="BU290">
-        <v>0.05</v>
-      </c>
-      <c r="BV290">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="291" spans="1:74" x14ac:dyDescent="0.8">
+    </row>
+    <row r="291" spans="1:67" x14ac:dyDescent="0.8">
       <c r="A291" s="4">
         <v>30192080190000</v>
       </c>
@@ -28862,14 +28155,14 @@
         <v>30192080190000</v>
       </c>
       <c r="C291" s="5" t="b">
-        <f>A291=B291</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="D291" t="s">
         <v>604</v>
       </c>
       <c r="E291" t="str">
-        <f>LEFT(F291,18)</f>
+        <f t="shared" si="10"/>
         <v>30-19-208-019-0000</v>
       </c>
       <c r="F291" t="s">
@@ -28941,14 +28234,8 @@
       <c r="BN291">
         <v>2001</v>
       </c>
-      <c r="BU291">
-        <v>0.05</v>
-      </c>
-      <c r="BV291">
-        <v>1961</v>
-      </c>
-    </row>
-    <row r="292" spans="1:74" x14ac:dyDescent="0.8">
+    </row>
+    <row r="292" spans="1:67" x14ac:dyDescent="0.8">
       <c r="A292" s="4">
         <v>30304050240000</v>
       </c>
@@ -28956,14 +28243,14 @@
         <v>30304050240000</v>
       </c>
       <c r="C292" s="5" t="b">
-        <f>A292=B292</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="D292" t="s">
         <v>829</v>
       </c>
       <c r="E292" t="str">
-        <f>LEFT(F292,18)</f>
+        <f t="shared" si="10"/>
         <v>30-30-405-024-0000</v>
       </c>
       <c r="F292" t="s">
@@ -29026,14 +28313,8 @@
       <c r="BO292">
         <v>37072</v>
       </c>
-      <c r="BU292">
-        <v>0.05</v>
-      </c>
-      <c r="BV292">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="293" spans="1:74" x14ac:dyDescent="0.8">
+    </row>
+    <row r="293" spans="1:67" x14ac:dyDescent="0.8">
       <c r="A293" s="4">
         <v>30324020190000</v>
       </c>
@@ -29041,14 +28322,14 @@
         <v>30324020190000</v>
       </c>
       <c r="C293" s="5" t="b">
-        <f>A293=B293</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="D293" t="s">
         <v>628</v>
       </c>
       <c r="E293" t="str">
-        <f>LEFT(F293,18)</f>
+        <f t="shared" si="10"/>
         <v>30-32-402-019-0000</v>
       </c>
       <c r="F293" t="s">
@@ -29120,14 +28401,8 @@
       <c r="BN293">
         <v>1973</v>
       </c>
-      <c r="BU293">
-        <v>0.05</v>
-      </c>
-      <c r="BV293">
-        <v>1963</v>
-      </c>
-    </row>
-    <row r="294" spans="1:74" x14ac:dyDescent="0.8">
+    </row>
+    <row r="294" spans="1:67" x14ac:dyDescent="0.8">
       <c r="A294" s="4">
         <v>31212020130000</v>
       </c>
@@ -29135,14 +28410,14 @@
         <v>31212020130000</v>
       </c>
       <c r="C294" s="5" t="b">
-        <f>A294=B294</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="D294" t="s">
         <v>635</v>
       </c>
       <c r="E294" t="str">
-        <f>LEFT(F294,18)</f>
+        <f t="shared" si="10"/>
         <v>31-21-202-013-0000</v>
       </c>
       <c r="F294" t="s">
@@ -29214,14 +28489,8 @@
       <c r="BN294">
         <v>2012</v>
       </c>
-      <c r="BU294">
-        <v>0.05</v>
-      </c>
-      <c r="BV294">
-        <v>1964</v>
-      </c>
-    </row>
-    <row r="295" spans="1:74" x14ac:dyDescent="0.8">
+    </row>
+    <row r="295" spans="1:67" x14ac:dyDescent="0.8">
       <c r="A295" s="4">
         <v>31221070070000</v>
       </c>
@@ -29229,14 +28498,14 @@
         <v>31221070070000</v>
       </c>
       <c r="C295" s="5" t="b">
-        <f>A295=B295</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="D295" t="s">
         <v>640</v>
       </c>
       <c r="E295" t="str">
-        <f>LEFT(F295,18)</f>
+        <f t="shared" si="10"/>
         <v>31-22-107-007-0000</v>
       </c>
       <c r="F295" t="s">
@@ -29308,14 +28577,8 @@
       <c r="BN295">
         <v>2010</v>
       </c>
-      <c r="BU295">
-        <v>0.05</v>
-      </c>
-      <c r="BV295">
-        <v>1969</v>
-      </c>
-    </row>
-    <row r="296" spans="1:74" x14ac:dyDescent="0.8">
+    </row>
+    <row r="296" spans="1:67" x14ac:dyDescent="0.8">
       <c r="A296" s="4">
         <v>31252090110000</v>
       </c>
@@ -29323,14 +28586,14 @@
         <v>31252090110000</v>
       </c>
       <c r="C296" s="5" t="b">
-        <f>A296=B296</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="D296" t="s">
         <v>777</v>
       </c>
       <c r="E296" t="str">
-        <f>LEFT(F296,18)</f>
+        <f t="shared" si="10"/>
         <v>31-25-209-011-0000</v>
       </c>
       <c r="F296" t="s">
@@ -29393,11 +28656,8 @@
       <c r="BO296">
         <v>32021</v>
       </c>
-      <c r="BU296">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="297" spans="1:74" x14ac:dyDescent="0.8">
+    </row>
+    <row r="297" spans="1:67" x14ac:dyDescent="0.8">
       <c r="A297" s="4">
         <v>32092010170000</v>
       </c>
@@ -29405,14 +28665,14 @@
         <v>32092010170000</v>
       </c>
       <c r="C297" s="5" t="b">
-        <f>A297=B297</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="D297" t="s">
         <v>860</v>
       </c>
       <c r="E297" t="str">
-        <f>LEFT(F297,18)</f>
+        <f t="shared" si="10"/>
         <v>32-09-201-017-0000</v>
       </c>
       <c r="F297" t="s">
@@ -29475,11 +28735,8 @@
       <c r="BO297">
         <v>12144</v>
       </c>
-      <c r="BU297">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="298" spans="1:74" x14ac:dyDescent="0.8">
+    </row>
+    <row r="298" spans="1:67" x14ac:dyDescent="0.8">
       <c r="A298" s="4">
         <v>32171130360000</v>
       </c>
@@ -29487,14 +28744,14 @@
         <v>32171130360000</v>
       </c>
       <c r="C298" s="5" t="b">
-        <f>A298=B298</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="D298" t="s">
         <v>674</v>
       </c>
       <c r="E298" t="str">
-        <f>LEFT(F298,18)</f>
+        <f t="shared" si="10"/>
         <v>32-17-113-036-0000</v>
       </c>
       <c r="F298" t="s">
@@ -29566,14 +28823,8 @@
       <c r="BN298">
         <v>1995</v>
       </c>
-      <c r="BU298">
-        <v>0.05</v>
-      </c>
-      <c r="BV298">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="299" spans="1:74" x14ac:dyDescent="0.8">
+    </row>
+    <row r="299" spans="1:67" x14ac:dyDescent="0.8">
       <c r="A299" s="4">
         <v>32174070010000</v>
       </c>
@@ -29581,14 +28832,14 @@
         <v>32174070010000</v>
       </c>
       <c r="C299" s="5" t="b">
-        <f>A299=B299</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="D299" t="s">
         <v>685</v>
       </c>
       <c r="E299" t="str">
-        <f>LEFT(F299,18)</f>
+        <f t="shared" si="10"/>
         <v>32-17-407-001-0000</v>
       </c>
       <c r="F299" t="s">
@@ -29660,14 +28911,8 @@
       <c r="BN299">
         <v>1964</v>
       </c>
-      <c r="BU299">
-        <v>0.05</v>
-      </c>
-      <c r="BV299">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="300" spans="1:74" x14ac:dyDescent="0.8">
+    </row>
+    <row r="300" spans="1:67" x14ac:dyDescent="0.8">
       <c r="A300" s="4">
         <v>32202010110000</v>
       </c>
@@ -29675,14 +28920,14 @@
         <v>32202010110000</v>
       </c>
       <c r="C300" s="5" t="b">
-        <f>A300=B300</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="D300" t="s">
         <v>692</v>
       </c>
       <c r="E300" t="str">
-        <f>LEFT(F300,18)</f>
+        <f t="shared" si="10"/>
         <v>32-20-201-011-0000</v>
       </c>
       <c r="F300" t="s">
@@ -29754,14 +28999,8 @@
       <c r="BN300">
         <v>1970</v>
       </c>
-      <c r="BU300">
-        <v>0.05</v>
-      </c>
-      <c r="BV300">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="301" spans="1:74" x14ac:dyDescent="0.8">
+    </row>
+    <row r="301" spans="1:67" x14ac:dyDescent="0.8">
       <c r="A301" s="4">
         <v>32204340390000</v>
       </c>
@@ -29769,14 +29008,14 @@
         <v>32204340390000</v>
       </c>
       <c r="C301" s="5" t="b">
-        <f>A301=B301</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="D301" t="s">
         <v>682</v>
       </c>
       <c r="E301" t="str">
-        <f>LEFT(F301,18)</f>
+        <f t="shared" si="10"/>
         <v>32-20-434-039-0000</v>
       </c>
       <c r="F301" t="s">
@@ -29848,14 +29087,8 @@
       <c r="BN301">
         <v>2007</v>
       </c>
-      <c r="BU301">
-        <v>0.1</v>
-      </c>
-      <c r="BV301">
-        <v>1989</v>
-      </c>
-    </row>
-    <row r="302" spans="1:74" x14ac:dyDescent="0.8">
+    </row>
+    <row r="302" spans="1:67" x14ac:dyDescent="0.8">
       <c r="A302" s="4">
         <v>32214110110000</v>
       </c>
@@ -29863,14 +29096,14 @@
         <v>32214110110000</v>
       </c>
       <c r="C302" s="5" t="b">
-        <f>A302=B302</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="D302" t="s">
         <v>702</v>
       </c>
       <c r="E302" t="str">
-        <f>LEFT(F302,18)</f>
+        <f t="shared" si="10"/>
         <v>32-21-411-011-0000</v>
       </c>
       <c r="F302" t="s">
@@ -29933,17 +29166,8 @@
       <c r="BO302">
         <v>12244</v>
       </c>
-      <c r="BS302">
-        <v>147202.431964088</v>
-      </c>
-      <c r="BU302">
-        <v>0.05</v>
-      </c>
-      <c r="BV302">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="303" spans="1:74" x14ac:dyDescent="0.8">
+    </row>
+    <row r="303" spans="1:67" x14ac:dyDescent="0.8">
       <c r="A303" s="4">
         <v>32253020260000</v>
       </c>
@@ -29951,14 +29175,14 @@
         <v>1009</v>
       </c>
       <c r="C303" s="5" t="b">
-        <f>A303=B303</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="D303" t="s">
         <v>679</v>
       </c>
       <c r="E303" t="str">
-        <f>LEFT(F303,18)</f>
+        <f t="shared" si="10"/>
         <v>32-25-302-026-0000</v>
       </c>
       <c r="F303" t="s">
@@ -30030,14 +29254,8 @@
       <c r="BN303">
         <v>1965</v>
       </c>
-      <c r="BU303">
-        <v>0.05</v>
-      </c>
-      <c r="BV303">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="304" spans="1:74" x14ac:dyDescent="0.8">
+    </row>
+    <row r="304" spans="1:67" x14ac:dyDescent="0.8">
       <c r="A304" s="4">
         <v>32331020170000</v>
       </c>
@@ -30045,14 +29263,14 @@
         <v>32331020170000</v>
       </c>
       <c r="C304" s="5" t="b">
-        <f>A304=B304</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="D304" t="s">
         <v>868</v>
       </c>
       <c r="E304" t="str">
-        <f>LEFT(F304,18)</f>
+        <f t="shared" si="10"/>
         <v>32-33-102-017-0000</v>
       </c>
       <c r="F304" t="s">
@@ -30115,14 +29333,8 @@
       <c r="BO304">
         <v>12023</v>
       </c>
-      <c r="BS304">
-        <v>226776.67943126601</v>
-      </c>
-      <c r="BU304">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="305" spans="1:74" x14ac:dyDescent="0.8">
+    </row>
+    <row r="305" spans="1:67" x14ac:dyDescent="0.8">
       <c r="A305" s="4">
         <v>32331030030000</v>
       </c>
@@ -30130,14 +29342,14 @@
         <v>32331030030000</v>
       </c>
       <c r="C305" s="5" t="b">
-        <f>A305=B305</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="D305" t="s">
         <v>872</v>
       </c>
       <c r="E305" t="str">
-        <f>LEFT(F305,18)</f>
+        <f t="shared" si="10"/>
         <v>32-33-103-003-0000</v>
       </c>
       <c r="F305" t="s">
@@ -30200,17 +29412,8 @@
       <c r="BO305">
         <v>12023</v>
       </c>
-      <c r="BS305">
-        <v>74113.706177279993</v>
-      </c>
-      <c r="BU305">
-        <v>0.1</v>
-      </c>
-      <c r="BV305">
-        <v>1999</v>
-      </c>
-    </row>
-    <row r="306" spans="1:74" x14ac:dyDescent="0.8">
+    </row>
+    <row r="306" spans="1:67" x14ac:dyDescent="0.8">
       <c r="A306" s="4">
         <v>32334130170000</v>
       </c>
@@ -30218,14 +29421,14 @@
         <v>32334130170000</v>
       </c>
       <c r="C306" s="5" t="b">
-        <f>A306=B306</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="D306" t="s">
         <v>688</v>
       </c>
       <c r="E306" t="str">
-        <f>LEFT(F306,18)</f>
+        <f t="shared" si="10"/>
         <v>32-33-413-017-0000</v>
       </c>
       <c r="F306" t="s">
@@ -30297,17 +29500,8 @@
       <c r="BN306">
         <v>2008</v>
       </c>
-      <c r="BS306">
-        <v>108620.49901824001</v>
-      </c>
-      <c r="BU306">
-        <v>0.1</v>
-      </c>
-      <c r="BV306">
-        <v>1999</v>
-      </c>
-    </row>
-    <row r="307" spans="1:74" x14ac:dyDescent="0.8">
+    </row>
+    <row r="307" spans="1:67" x14ac:dyDescent="0.8">
       <c r="A307" s="4">
         <v>33301000110000</v>
       </c>
@@ -30315,14 +29509,14 @@
         <v>33301000110000</v>
       </c>
       <c r="C307" s="5" t="b">
-        <f>A307=B307</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="D307" t="s">
         <v>707</v>
       </c>
       <c r="E307" t="str">
-        <f>LEFT(F307,18)</f>
+        <f t="shared" si="10"/>
         <v>33-30-100-011-0000</v>
       </c>
       <c r="F307" t="s">
@@ -30384,15 +29578,6 @@
       </c>
       <c r="BO307">
         <v>12064</v>
-      </c>
-      <c r="BS307">
-        <v>54746.903661119999</v>
-      </c>
-      <c r="BU307">
-        <v>0.1</v>
-      </c>
-      <c r="BV307">
-        <v>1999</v>
       </c>
     </row>
   </sheetData>
@@ -30407,7 +29592,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
